--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIKU\Desktop\lw-tt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96640D21-56E4-4ACD-AFD2-EFBCE4D7DAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77036715-BDC6-4515-AE69-91EAB8DC7EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,17 @@
   <definedNames>
     <definedName name="非稼働日">Config!$C$3:$C$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -517,7 +527,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +568,24 @@
       <patternFill patternType="lightUp">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -697,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +802,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,20 +1215,20 @@
   <dimension ref="A1:BT60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="4" width="1.88671875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.88671875" style="8" customWidth="1"/>
-    <col min="9" max="72" width="3.109375" style="8" customWidth="1"/>
+    <col min="1" max="4" width="1.90625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.90625" style="8" customWidth="1"/>
+    <col min="9" max="72" width="3.08984375" style="8" customWidth="1"/>
     <col min="73" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:72" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:72" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:72" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="I3" s="12">
         <f>Config!B3</f>
         <v>44103</v>
@@ -1727,7 +1764,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="4" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -2276,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
         <v>11</v>
@@ -2284,13 +2321,13 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="34">
         <v>44103</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="35">
         <v>44103</v>
       </c>
       <c r="I6" s="19">
@@ -2550,7 +2587,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>12</v>
@@ -2558,13 +2595,13 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="34">
         <v>44104</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="35">
         <v>44104</v>
       </c>
       <c r="I7" s="19" t="str">
@@ -2824,7 +2861,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
@@ -2832,13 +2869,13 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="34">
         <v>44104</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="35">
         <v>44104</v>
       </c>
       <c r="I8" s="19"/>
@@ -2908,7 +2945,7 @@
       <c r="BS8" s="19"/>
       <c r="BT8" s="19"/>
     </row>
-    <row r="9" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -2916,13 +2953,13 @@
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="34">
         <v>44104</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="35">
         <v>44104</v>
       </c>
       <c r="I9" s="19"/>
@@ -2992,7 +3029,7 @@
       <c r="BS9" s="19"/>
       <c r="BT9" s="19"/>
     </row>
-    <row r="10" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="15"/>
       <c r="B10" s="16" t="s">
         <v>14</v>
@@ -3078,7 +3115,7 @@
       <c r="BS10" s="19"/>
       <c r="BT10" s="19"/>
     </row>
-    <row r="11" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
@@ -3162,7 +3199,7 @@
       <c r="BS11" s="19"/>
       <c r="BT11" s="19"/>
     </row>
-    <row r="12" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -3246,7 +3283,7 @@
       <c r="BS12" s="19"/>
       <c r="BT12" s="19"/>
     </row>
-    <row r="13" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
@@ -3330,7 +3367,7 @@
       <c r="BS13" s="19"/>
       <c r="BT13" s="19"/>
     </row>
-    <row r="14" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
@@ -3416,7 +3453,7 @@
       <c r="BS14" s="19"/>
       <c r="BT14" s="19"/>
     </row>
-    <row r="15" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
         <v>15</v>
@@ -3681,7 +3718,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
@@ -3765,7 +3802,7 @@
       <c r="BS16" s="19"/>
       <c r="BT16" s="19"/>
     </row>
-    <row r="17" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
@@ -3849,7 +3886,7 @@
       <c r="BS17" s="19"/>
       <c r="BT17" s="19"/>
     </row>
-    <row r="18" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -3933,7 +3970,7 @@
       <c r="BS18" s="19"/>
       <c r="BT18" s="19"/>
     </row>
-    <row r="19" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -4017,7 +4054,7 @@
       <c r="BS19" s="19"/>
       <c r="BT19" s="19"/>
     </row>
-    <row r="20" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
         <v>16</v>
@@ -4290,7 +4327,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
@@ -4374,7 +4411,7 @@
       <c r="BS21" s="19"/>
       <c r="BT21" s="19"/>
     </row>
-    <row r="22" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
@@ -4458,7 +4495,7 @@
       <c r="BS22" s="19"/>
       <c r="BT22" s="19"/>
     </row>
-    <row r="23" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16" t="s">
@@ -4544,7 +4581,7 @@
       <c r="BS23" s="19"/>
       <c r="BT23" s="19"/>
     </row>
-    <row r="24" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
@@ -4628,7 +4665,7 @@
       <c r="BS24" s="19"/>
       <c r="BT24" s="19"/>
     </row>
-    <row r="25" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
@@ -4714,7 +4751,7 @@
       <c r="BS25" s="19"/>
       <c r="BT25" s="19"/>
     </row>
-    <row r="26" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
         <v>17</v>
@@ -4988,7 +5025,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
@@ -5072,7 +5109,7 @@
       <c r="BS27" s="19"/>
       <c r="BT27" s="19"/>
     </row>
-    <row r="28" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16" t="s">
@@ -5156,7 +5193,7 @@
       <c r="BS28" s="19"/>
       <c r="BT28" s="19"/>
     </row>
-    <row r="29" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16" t="s">
@@ -5244,7 +5281,7 @@
       <c r="BS29" s="19"/>
       <c r="BT29" s="19"/>
     </row>
-    <row r="30" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16" t="s">
@@ -5336,7 +5373,7 @@
       <c r="BS30" s="19"/>
       <c r="BT30" s="19"/>
     </row>
-    <row r="31" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
         <v>18</v>
@@ -5610,7 +5647,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
@@ -5714,7 +5751,7 @@
       <c r="BS32" s="19"/>
       <c r="BT32" s="19"/>
     </row>
-    <row r="33" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16" t="s">
@@ -5798,7 +5835,7 @@
       <c r="BS33" s="19"/>
       <c r="BT33" s="19"/>
     </row>
-    <row r="34" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16" t="s">
@@ -5884,7 +5921,7 @@
       <c r="BS34" s="19"/>
       <c r="BT34" s="19"/>
     </row>
-    <row r="35" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16" t="s">
@@ -5972,7 +6009,7 @@
       <c r="BS35" s="19"/>
       <c r="BT35" s="19"/>
     </row>
-    <row r="36" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16" t="s">
@@ -6056,7 +6093,7 @@
       <c r="BS36" s="19"/>
       <c r="BT36" s="19"/>
     </row>
-    <row r="37" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16" t="s">
@@ -6148,7 +6185,7 @@
       <c r="BS37" s="19"/>
       <c r="BT37" s="19"/>
     </row>
-    <row r="38" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16" t="s">
@@ -6252,7 +6289,7 @@
       <c r="BS38" s="19"/>
       <c r="BT38" s="19"/>
     </row>
-    <row r="39" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="15"/>
       <c r="B39" s="16" t="s">
         <v>19</v>
@@ -6520,7 +6557,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="15"/>
       <c r="B40" s="16" t="s">
         <v>20</v>
@@ -6788,7 +6825,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="15"/>
       <c r="B41" s="16" t="s">
         <v>21</v>
@@ -7059,7 +7096,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -7328,7 +7365,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -7597,7 +7634,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -7866,7 +7903,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -8135,7 +8172,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -8404,7 +8441,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -8673,7 +8710,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -8942,7 +8979,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -9211,7 +9248,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -9480,7 +9517,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -9749,7 +9786,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -10018,7 +10055,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -10287,7 +10324,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -10556,7 +10593,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -10825,7 +10862,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -11094,7 +11131,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -11363,7 +11400,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -11632,10 +11669,10 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
@@ -11692,12 +11729,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="5.1796875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -11984,7 +12021,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77036715-BDC6-4515-AE69-91EAB8DC7EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B565AE88-6502-4170-9FAB-0CB602C5BEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -785,6 +785,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -803,20 +812,280 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1215,7 +1484,7 @@
   <dimension ref="A1:BT60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1229,26 +1498,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:72" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="I2" s="9">
         <f>I3</f>
         <v>44103</v>
@@ -1765,13 +2034,13 @@
       </c>
     </row>
     <row r="4" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="13" t="s">
         <v>1</v>
       </c>
@@ -2321,21 +2590,20 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="26">
         <v>44103</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="27">
         <v>44103</v>
       </c>
       <c r="I6" s="19">
-        <f t="shared" ref="I6:X58" si="85">IF($F6="","",IF((I$3&gt;=$G6)*AND(I$3&lt;=$H6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v>2</v>
       </c>
       <c r="J6" s="19" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="I6:X58" si="85">IF($F6="","",IF((J$3&gt;=$G6)*AND(J$3&lt;=$H6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="K6" s="19" t="str">
@@ -2595,13 +2863,13 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="26">
         <v>44104</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="27">
         <v>44104</v>
       </c>
       <c r="I7" s="19" t="str">
@@ -2869,18 +3137,18 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="26">
         <v>44104</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="27">
         <v>44104</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
@@ -2953,18 +3221,18 @@
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="26">
         <v>44104</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="27">
         <v>44104</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -3123,19 +3391,19 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="26">
         <v>44105</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="27">
         <v>44105</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
@@ -3207,19 +3475,19 @@
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="26">
         <v>44105</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="27">
         <v>44105</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
@@ -11690,30 +11958,43 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="I4:BT4">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BT58">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:BT2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="16">
       <formula>LEN(TRIM(J2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11763,7 +12044,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="4">
         <v>41434</v>
       </c>
@@ -11774,7 +12055,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="4">
         <v>41440</v>
       </c>
@@ -11785,7 +12066,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="31"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="4">
         <v>41441</v>
       </c>
@@ -11796,7 +12077,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="4">
         <v>41447</v>
       </c>
@@ -11807,7 +12088,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="31"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="4">
         <v>41448</v>
       </c>
@@ -11818,7 +12099,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="31"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="4">
         <v>41454</v>
       </c>
@@ -11829,7 +12110,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="31"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="4">
         <v>41455</v>
       </c>
@@ -11840,7 +12121,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="31"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="4">
         <v>41461</v>
       </c>
@@ -11851,7 +12132,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="31"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="4">
         <v>41462</v>
       </c>
@@ -11862,7 +12143,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="31"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="4">
         <v>41468</v>
       </c>
@@ -11873,7 +12154,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="31"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="4">
         <v>41469</v>
       </c>
@@ -11884,7 +12165,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="31"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="4">
         <v>41475</v>
       </c>
@@ -11895,7 +12176,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="31"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="4">
         <v>41476</v>
       </c>
@@ -11906,7 +12187,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="31"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="4">
         <v>41482</v>
       </c>
@@ -11917,7 +12198,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="31"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="4">
         <v>41483</v>
       </c>
@@ -11928,7 +12209,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="31"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="4">
         <v>41489</v>
       </c>
@@ -11939,7 +12220,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="31"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="4">
         <v>41490</v>
       </c>
@@ -11950,7 +12231,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="31"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="4">
         <v>41496</v>
       </c>
@@ -11961,7 +12242,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="31"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="4">
         <v>41497</v>
       </c>
@@ -11972,7 +12253,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="4">
         <v>41499</v>
       </c>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B21A75-0165-4143-9BFA-628511A5221F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C4166B-0997-4ACD-9BAA-406E541FD0F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:BV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -3355,24 +3355,26 @@
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="26">
         <v>44106</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="27">
         <v>44106</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="27">
         <v>44104</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="27">
+        <v>44105</v>
+      </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C4166B-0997-4ACD-9BAA-406E541FD0F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E9CAD-6A18-4F54-B7AE-C9A238468FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -461,6 +461,13 @@
     <t>4h</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>却下</t>
+    <rPh sb="0" eb="2">
+      <t>キャッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -718,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1234,7 +1242,7 @@
   <dimension ref="A1:BV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -3445,24 +3453,26 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="26">
         <v>44106</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="27">
         <v>44106</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="27">
         <v>44104</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="27" t="s">
+        <v>59</v>
+      </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
@@ -3533,28 +3543,32 @@
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="26">
         <v>44105</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="27">
         <v>44106</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="27">
         <v>44104</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="27">
+        <v>44107</v>
+      </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
-      <c r="M15" s="19">
-        <v>3</v>
-      </c>
-      <c r="N15" s="19">
-        <v>3</v>
-      </c>
-      <c r="O15" s="19"/>
+      <c r="M15" s="36">
+        <v>4</v>
+      </c>
+      <c r="N15" s="36">
+        <v>4</v>
+      </c>
+      <c r="O15" s="36">
+        <v>4</v>
+      </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E9CAD-6A18-4F54-B7AE-C9A238468FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD72421F-7524-4988-80D9-B527DC7E3B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -3093,19 +3093,21 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="26">
         <v>44105</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="27">
         <v>44106</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="27">
         <v>44104</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="27">
+        <v>44107</v>
+      </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19">
@@ -3637,17 +3639,21 @@
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="26">
         <v>44107</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="27">
         <v>44107</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="I16" s="27">
+        <v>44107</v>
+      </c>
+      <c r="J16" s="27">
+        <v>43909</v>
+      </c>
       <c r="K16" s="19" t="str">
         <f t="shared" si="84"/>
         <v/>
@@ -3904,23 +3910,27 @@
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="26">
         <v>44107</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="27">
         <v>44107</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="27">
+        <v>44107</v>
+      </c>
+      <c r="J17" s="27">
+        <v>44107</v>
+      </c>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -3990,23 +4000,27 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="26">
         <v>44107</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="27">
         <v>44107</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="I18" s="27">
+        <v>44107</v>
+      </c>
+      <c r="J18" s="27">
+        <v>44107</v>
+      </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -4076,23 +4090,27 @@
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="26">
         <v>44107</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="27">
         <v>44107</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="I19" s="27">
+        <v>44107</v>
+      </c>
+      <c r="J19" s="27">
+        <v>44107</v>
+      </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -4162,23 +4180,27 @@
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="26">
         <v>44107</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="27">
         <v>44107</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="27">
+        <v>44107</v>
+      </c>
+      <c r="J20" s="27">
+        <v>44107</v>
+      </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -4257,7 +4279,9 @@
       <c r="H21" s="23">
         <v>44108</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="23">
+        <v>44107</v>
+      </c>
       <c r="J21" s="23"/>
       <c r="K21" s="19" t="str">
         <f t="shared" si="84"/>
@@ -4523,23 +4547,27 @@
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="26">
         <v>44107</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="27">
         <v>44107</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="I22" s="27">
+        <v>44107</v>
+      </c>
+      <c r="J22" s="27">
+        <v>44107</v>
+      </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -4609,23 +4637,27 @@
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="26">
         <v>44107</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="27">
         <v>44107</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+      <c r="I23" s="27">
+        <v>44107</v>
+      </c>
+      <c r="J23" s="27">
+        <v>44107</v>
+      </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -4695,27 +4727,29 @@
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="26">
         <v>44107</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="27">
         <v>44108</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="27">
+        <v>44107</v>
+      </c>
+      <c r="J24" s="27">
+        <v>44107</v>
+      </c>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19">
-        <v>3</v>
-      </c>
-      <c r="P24" s="19">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
@@ -4878,7 +4912,9 @@
       <c r="H26" s="23">
         <v>44108</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="23">
+        <v>44107</v>
+      </c>
       <c r="J26" s="23"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD72421F-7524-4988-80D9-B527DC7E3B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBCF320-73DC-44B4-A2CE-24BC2A1380DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -465,6 +465,20 @@
     <t>却下</t>
     <rPh sb="0" eb="2">
       <t>キャッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シーケンス図</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>API定義</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1242,7 +1256,7 @@
   <dimension ref="A1:BV61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -5268,7 +5282,9 @@
         <v>37</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F28" s="18" t="s">
         <v>56</v>
       </c>
@@ -5354,7 +5370,9 @@
         <v>38</v>
       </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="18" t="s">
         <v>56</v>
       </c>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34CAE82-B764-4099-ACA1-A3991B6D753E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B54674A-9632-4CA3-BC9F-68D7C3AA3936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:BV56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -4731,7 +4731,9 @@
       <c r="H24" s="23">
         <v>44113</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="23">
+        <v>44108</v>
+      </c>
       <c r="J24" s="23"/>
       <c r="K24" s="19" t="str">
         <f t="shared" si="84"/>
@@ -5009,7 +5011,9 @@
       <c r="H25" s="23">
         <v>44109</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="23">
+        <v>44108</v>
+      </c>
       <c r="J25" s="23"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B54674A-9632-4CA3-BC9F-68D7C3AA3936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCC63CB-480A-4FB2-9638-DA8C367107C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -462,6 +462,13 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>3.5. 変更</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -719,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +812,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV56"/>
+  <dimension ref="A1:BV57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -2090,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="19">
-        <f t="shared" ref="L5:BV19" si="83">IF($F5="","",IF((L$3&gt;=$G5)*AND(L$3&lt;=$H5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" ref="L5:BV20" si="83">IF($F5="","",IF((L$3&gt;=$G5)*AND(L$3&lt;=$H5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
       <c r="M5" s="19">
@@ -2369,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="19" t="str">
-        <f t="shared" ref="K6:Z54" si="84">IF($F6="","",IF((L$3&gt;=$G6)*AND(L$3&lt;=$H6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" ref="K6:Z55" si="84">IF($F6="","",IF((L$3&gt;=$G6)*AND(L$3&lt;=$H6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="M6" s="19" t="str">
@@ -3019,8 +3032,12 @@
       <c r="N9" s="19">
         <v>2</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="O9" s="19">
+        <v>2</v>
+      </c>
+      <c r="P9" s="19">
+        <v>2</v>
+      </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
@@ -3442,285 +3459,104 @@
     </row>
     <row r="14" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="26">
-        <v>44107</v>
-      </c>
-      <c r="H14" s="27">
-        <v>44107</v>
-      </c>
-      <c r="I14" s="27">
-        <v>44107</v>
-      </c>
-      <c r="J14" s="27">
-        <v>43909</v>
-      </c>
-      <c r="K14" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
+      <c r="F14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="37">
+        <v>44108</v>
+      </c>
+      <c r="H14" s="37">
+        <v>44108</v>
+      </c>
+      <c r="I14" s="37">
+        <v>44108</v>
+      </c>
+      <c r="J14" s="37">
+        <v>44108</v>
+      </c>
+      <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="O14" s="19">
-        <f t="shared" si="83"/>
-        <v>2</v>
-      </c>
-      <c r="P14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19">
+        <v>4</v>
       </c>
       <c r="Q14" s="19"/>
-      <c r="R14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="S14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="T14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="U14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="V14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="W14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="X14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="Y14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="Z14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AA14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AB14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AC14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AD14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AE14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AF14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AG14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AH14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AI14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AJ14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AK14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AL14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AM14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AN14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AO14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AP14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AQ14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AR14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AS14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AT14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AU14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AV14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AW14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AX14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AY14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AZ14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BA14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BB14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BC14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BD14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BE14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BF14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BG14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BH14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BI14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BJ14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BK14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BL14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BM14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BN14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BO14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BP14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BQ14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BR14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BS14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BT14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BU14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="BV14" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="19"/>
+      <c r="BD14" s="19"/>
+      <c r="BE14" s="19"/>
+      <c r="BF14" s="19"/>
+      <c r="BG14" s="19"/>
+      <c r="BH14" s="19"/>
+      <c r="BI14" s="19"/>
+      <c r="BJ14" s="19"/>
+      <c r="BK14" s="19"/>
+      <c r="BL14" s="19"/>
+      <c r="BM14" s="19"/>
+      <c r="BN14" s="19"/>
+      <c r="BO14" s="19"/>
+      <c r="BP14" s="19"/>
+      <c r="BQ14" s="19"/>
+      <c r="BR14" s="19"/>
+      <c r="BS14" s="19"/>
+      <c r="BT14" s="19"/>
+      <c r="BU14" s="19"/>
+      <c r="BV14" s="19"/>
     </row>
     <row r="15" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="25" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G15" s="26">
         <v>44107</v>
@@ -3732,85 +3568,266 @@
         <v>44107</v>
       </c>
       <c r="J15" s="27">
-        <v>44107</v>
-      </c>
-      <c r="K15" s="19"/>
+        <v>43909</v>
+      </c>
+      <c r="K15" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="N15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
       <c r="O15" s="19">
-        <v>4</v>
-      </c>
-      <c r="P15" s="19"/>
+        <f t="shared" si="83"/>
+        <v>2</v>
+      </c>
+      <c r="P15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
       <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="19"/>
-      <c r="BD15" s="19"/>
-      <c r="BE15" s="19"/>
-      <c r="BF15" s="19"/>
-      <c r="BG15" s="19"/>
-      <c r="BH15" s="19"/>
-      <c r="BI15" s="19"/>
-      <c r="BJ15" s="19"/>
-      <c r="BK15" s="19"/>
-      <c r="BL15" s="19"/>
-      <c r="BM15" s="19"/>
-      <c r="BN15" s="19"/>
-      <c r="BO15" s="19"/>
-      <c r="BP15" s="19"/>
-      <c r="BQ15" s="19"/>
-      <c r="BR15" s="19"/>
-      <c r="BS15" s="19"/>
-      <c r="BT15" s="19"/>
-      <c r="BU15" s="19"/>
-      <c r="BV15" s="19"/>
+      <c r="R15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="S15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="T15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="U15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="V15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="W15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="X15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Y15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Z15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AA15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AB15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AC15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AD15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AF15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AG15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AH15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AI15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AJ15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AK15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AL15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AM15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AN15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AO15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AP15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AQ15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AR15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AS15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AT15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AU15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AV15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AW15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AX15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AY15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AZ15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BA15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BB15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BC15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BD15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BE15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BF15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BG15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BH15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BI15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BJ15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BK15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BL15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BM15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BN15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BO15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BP15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BQ15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BR15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BS15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BT15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BU15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BV15" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G16" s="26">
         <v>44107</v>
@@ -3895,7 +3912,7 @@
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
@@ -3985,12 +4002,12 @@
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G18" s="26">
         <v>44107</v>
@@ -4073,20 +4090,20 @@
     </row>
     <row r="19" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="15"/>
-      <c r="B19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
       <c r="F19" s="25" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G19" s="26">
         <v>44107</v>
       </c>
       <c r="H19" s="27">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="I19" s="27">
         <v>44107</v>
@@ -4094,278 +4111,89 @@
       <c r="J19" s="27">
         <v>44107</v>
       </c>
-      <c r="K19" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="M19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="N19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
       <c r="O19" s="19">
-        <v>2</v>
-      </c>
-      <c r="P19" s="19">
-        <f t="shared" si="83"/>
-        <v>2</v>
-      </c>
-      <c r="Q19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="R19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="S19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="T19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="U19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="V19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="W19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="X19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="Y19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="Z19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AA19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AB19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AC19" s="19" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AD19" s="19" t="str">
-        <f t="shared" ref="L19:BV36" si="85">IF($F19="","",IF((AD$3&gt;=$G19)*AND(AD$3&lt;=$H19),IF($A19="",IF($B19="",3,2),1),""))</f>
-        <v/>
-      </c>
-      <c r="AE19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AF19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AG19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AH19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AI19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AJ19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AK19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AL19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AM19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AN19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AO19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AP19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AQ19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AR19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AS19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AT19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AU19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AV19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AW19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AX19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AY19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AZ19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BA19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BB19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BC19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BD19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BE19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BF19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BG19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BH19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BI19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BJ19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BK19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BL19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BM19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BN19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BO19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BP19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BQ19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BR19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BS19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BT19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BU19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BV19" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="19"/>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="19"/>
+      <c r="BH19" s="19"/>
+      <c r="BI19" s="19"/>
+      <c r="BJ19" s="19"/>
+      <c r="BK19" s="19"/>
+      <c r="BL19" s="19"/>
+      <c r="BM19" s="19"/>
+      <c r="BN19" s="19"/>
+      <c r="BO19" s="19"/>
+      <c r="BP19" s="19"/>
+      <c r="BQ19" s="19"/>
+      <c r="BR19" s="19"/>
+      <c r="BS19" s="19"/>
+      <c r="BT19" s="19"/>
+      <c r="BU19" s="19"/>
+      <c r="BV19" s="19"/>
     </row>
     <row r="20" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="B20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="25" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G20" s="26">
         <v>44107</v>
       </c>
       <c r="H20" s="27">
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="I20" s="27">
         <v>44107</v>
@@ -4373,78 +4201,267 @@
       <c r="J20" s="27">
         <v>44107</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
+      <c r="K20" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="M20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="N20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
       <c r="O20" s="19">
-        <v>4</v>
-      </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="19"/>
-      <c r="BE20" s="19"/>
-      <c r="BF20" s="19"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="19"/>
-      <c r="BL20" s="19"/>
-      <c r="BM20" s="19"/>
-      <c r="BN20" s="19"/>
-      <c r="BO20" s="19"/>
-      <c r="BP20" s="19"/>
-      <c r="BQ20" s="19"/>
-      <c r="BR20" s="19"/>
-      <c r="BS20" s="19"/>
-      <c r="BT20" s="19"/>
-      <c r="BU20" s="19"/>
-      <c r="BV20" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="P20" s="19">
+        <f t="shared" si="83"/>
+        <v>2</v>
+      </c>
+      <c r="Q20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="R20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="S20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="T20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="U20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="V20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="W20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="X20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Y20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Z20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AA20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AB20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AC20" s="19" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AD20" s="19" t="str">
+        <f t="shared" ref="L20:BV37" si="85">IF($F20="","",IF((AD$3&gt;=$G20)*AND(AD$3&lt;=$H20),IF($A20="",IF($B20="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AE20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AF20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AH20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AI20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AJ20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AK20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AL20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AM20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AN20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AO20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AP20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AQ20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AR20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AS20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AT20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AU20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AV20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AW20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AX20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AY20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AZ20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BA20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BB20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BC20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BD20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BE20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BF20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BG20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BH20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BI20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BJ20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BK20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BL20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BM20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BN20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BO20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BP20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BQ20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BR20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BS20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BT20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BU20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BV20" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
@@ -4534,18 +4551,18 @@
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="26">
         <v>44107</v>
       </c>
       <c r="H22" s="27">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="I22" s="27">
         <v>44107</v>
@@ -4560,9 +4577,7 @@
       <c r="O22" s="19">
         <v>4</v>
       </c>
-      <c r="P22" s="19">
-        <v>4</v>
-      </c>
+      <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
@@ -4626,15 +4641,15 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G23" s="26">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="H23" s="27">
         <v>44108</v>
@@ -4716,403 +4731,409 @@
     </row>
     <row r="24" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="22">
-        <v>44109</v>
-      </c>
-      <c r="H24" s="23">
-        <v>44113</v>
-      </c>
-      <c r="I24" s="23">
+      <c r="F24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="26">
         <v>44108</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="M24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="N24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="O24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="P24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Q24" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="R24" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="S24" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="T24" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="U24" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="V24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="W24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="X24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Y24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Z24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AA24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AB24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AC24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AD24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AE24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AF24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AG24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AH24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AI24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AJ24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AK24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AL24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AM24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AN24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AO24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AP24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AQ24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AR24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AS24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AT24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AU24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AV24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AW24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AX24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AY24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AZ24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BA24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BB24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BC24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BD24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BE24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BF24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BG24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BH24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BI24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BJ24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BK24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BL24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BM24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BN24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BO24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BP24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BQ24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BR24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BS24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BT24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BU24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BV24" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
+      <c r="H24" s="27">
+        <v>44108</v>
+      </c>
+      <c r="I24" s="27">
+        <v>44107</v>
+      </c>
+      <c r="J24" s="27">
+        <v>44107</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19">
+        <v>4</v>
+      </c>
+      <c r="P24" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
+      <c r="BF24" s="19"/>
+      <c r="BG24" s="19"/>
+      <c r="BH24" s="19"/>
+      <c r="BI24" s="19"/>
+      <c r="BJ24" s="19"/>
+      <c r="BK24" s="19"/>
+      <c r="BL24" s="19"/>
+      <c r="BM24" s="19"/>
+      <c r="BN24" s="19"/>
+      <c r="BO24" s="19"/>
+      <c r="BP24" s="19"/>
+      <c r="BQ24" s="19"/>
+      <c r="BR24" s="19"/>
+      <c r="BS24" s="19"/>
+      <c r="BT24" s="19"/>
+      <c r="BU24" s="19"/>
+      <c r="BV24" s="19"/>
     </row>
     <row r="25" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="B25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="E25" s="17"/>
       <c r="F25" s="18" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G25" s="22">
         <v>44109</v>
       </c>
       <c r="H25" s="23">
-        <v>44109</v>
+        <v>44113</v>
       </c>
       <c r="I25" s="23">
         <v>44108</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
+      <c r="K25" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="M25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="N25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="O25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="P25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
       <c r="Q25" s="19">
-        <v>3</v>
-      </c>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
-      <c r="BB25" s="19"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="19"/>
-      <c r="BF25" s="19"/>
-      <c r="BG25" s="19"/>
-      <c r="BH25" s="19"/>
-      <c r="BI25" s="19"/>
-      <c r="BJ25" s="19"/>
-      <c r="BK25" s="19"/>
-      <c r="BL25" s="19"/>
-      <c r="BM25" s="19"/>
-      <c r="BN25" s="19"/>
-      <c r="BO25" s="19"/>
-      <c r="BP25" s="19"/>
-      <c r="BQ25" s="19"/>
-      <c r="BR25" s="19"/>
-      <c r="BS25" s="19"/>
-      <c r="BT25" s="19"/>
-      <c r="BU25" s="19"/>
-      <c r="BV25" s="19"/>
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="R25" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="S25" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="T25" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="U25" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="V25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="W25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="X25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="Y25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="Z25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AA25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AB25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AC25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AD25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AE25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AF25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AH25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AI25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AJ25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AK25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AL25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AM25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AN25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AO25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AP25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AQ25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AR25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AS25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AT25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AU25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AV25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AW25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AX25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AY25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AZ25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BA25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BB25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BC25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BD25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BE25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BF25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BG25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BH25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BI25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BJ25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BK25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BL25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BM25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BN25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BO25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BP25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BQ25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BR25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BS25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BT25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BU25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BV25" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="22">
-        <v>44110</v>
-      </c>
-      <c r="H26" s="23">
-        <v>44110</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="G26" s="26">
+        <v>44109</v>
+      </c>
+      <c r="H26" s="27">
+        <v>44109</v>
+      </c>
+      <c r="I26" s="27">
+        <v>44108</v>
+      </c>
+      <c r="J26" s="27">
+        <v>44108</v>
+      </c>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19">
-        <v>3</v>
-      </c>
+      <c r="Q26" s="19">
+        <v>4</v>
+      </c>
+      <c r="R26" s="19"/>
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
@@ -5174,21 +5195,27 @@
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="22">
-        <v>44111</v>
-      </c>
-      <c r="H27" s="23">
-        <v>44113</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="E27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="26">
+        <v>44110</v>
+      </c>
+      <c r="H27" s="27">
+        <v>44110</v>
+      </c>
+      <c r="I27" s="27">
+        <v>44108</v>
+      </c>
+      <c r="J27" s="27">
+        <v>44108</v>
+      </c>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -5196,16 +5223,12 @@
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19">
-        <v>3</v>
-      </c>
-      <c r="T27" s="19">
-        <v>3</v>
-      </c>
-      <c r="U27" s="19">
-        <v>3</v>
-      </c>
+      <c r="R27" s="19">
+        <v>4</v>
+      </c>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
       <c r="X27" s="19"/>
@@ -5262,286 +5285,100 @@
     </row>
     <row r="28" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G28" s="22">
-        <v>44114</v>
+        <v>44111</v>
       </c>
       <c r="H28" s="23">
-        <v>44124</v>
+        <v>44113</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
-      <c r="K28" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="M28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="N28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="O28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="P28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Q28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="R28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="S28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="T28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="U28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="V28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="W28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="X28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="Y28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="Z28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="AA28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="AB28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="AC28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="AD28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="AE28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="AF28" s="19">
-        <f t="shared" si="85"/>
-        <v>2</v>
-      </c>
-      <c r="AG28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AH28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AI28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AJ28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AK28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AL28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AM28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AN28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AO28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AP28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AQ28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AR28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AS28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AT28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AU28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AV28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AW28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AX28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AY28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AZ28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BA28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BB28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BC28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BD28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BE28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BF28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BG28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BH28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BI28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BJ28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BK28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BL28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BM28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BN28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BO28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BP28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BQ28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BR28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BS28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BT28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BU28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BV28" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19">
+        <v>3</v>
+      </c>
+      <c r="T28" s="19">
+        <v>3</v>
+      </c>
+      <c r="U28" s="19">
+        <v>3</v>
+      </c>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="19"/>
+      <c r="BF28" s="19"/>
+      <c r="BG28" s="19"/>
+      <c r="BH28" s="19"/>
+      <c r="BI28" s="19"/>
+      <c r="BJ28" s="19"/>
+      <c r="BK28" s="19"/>
+      <c r="BL28" s="19"/>
+      <c r="BM28" s="19"/>
+      <c r="BN28" s="19"/>
+      <c r="BO28" s="19"/>
+      <c r="BP28" s="19"/>
+      <c r="BQ28" s="19"/>
+      <c r="BR28" s="19"/>
+      <c r="BS28" s="19"/>
+      <c r="BT28" s="19"/>
+      <c r="BU28" s="19"/>
+      <c r="BV28" s="19"/>
     </row>
     <row r="29" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="B29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
       <c r="F29" s="18" t="s">
@@ -5555,109 +5392,279 @@
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
+      <c r="K29" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="M29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="N29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="O29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="P29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="Q29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="R29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="S29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="U29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
       <c r="V29" s="19">
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="W29" s="19">
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="X29" s="19">
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="Y29" s="19">
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="Z29" s="19">
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="AA29" s="19">
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="AB29" s="19">
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="AC29" s="19">
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="AD29" s="19">
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="AE29" s="19">
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="AF29" s="19">
-        <v>3</v>
-      </c>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
-      <c r="AN29" s="19"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="19"/>
-      <c r="AQ29" s="19"/>
-      <c r="AR29" s="19"/>
-      <c r="AS29" s="19"/>
-      <c r="AT29" s="19"/>
-      <c r="AU29" s="19"/>
-      <c r="AV29" s="19"/>
-      <c r="AW29" s="19"/>
-      <c r="AX29" s="19"/>
-      <c r="AY29" s="19"/>
-      <c r="AZ29" s="19"/>
-      <c r="BA29" s="19"/>
-      <c r="BB29" s="19"/>
-      <c r="BC29" s="19"/>
-      <c r="BD29" s="19"/>
-      <c r="BE29" s="19"/>
-      <c r="BF29" s="19"/>
-      <c r="BG29" s="19"/>
-      <c r="BH29" s="19"/>
-      <c r="BI29" s="19"/>
-      <c r="BJ29" s="19"/>
-      <c r="BK29" s="19"/>
-      <c r="BL29" s="19"/>
-      <c r="BM29" s="19"/>
-      <c r="BN29" s="19"/>
-      <c r="BO29" s="19"/>
-      <c r="BP29" s="19"/>
-      <c r="BQ29" s="19"/>
-      <c r="BR29" s="19"/>
-      <c r="BS29" s="19"/>
-      <c r="BT29" s="19"/>
-      <c r="BU29" s="19"/>
-      <c r="BV29" s="19"/>
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AG29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AH29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AI29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AJ29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AK29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AL29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AM29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AN29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AO29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AP29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AQ29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AR29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AS29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AT29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AU29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AV29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AW29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AX29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AY29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AZ29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BA29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BB29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BC29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BD29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BE29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BF29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BG29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BH29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BI29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BJ29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BK29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BL29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BM29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BN29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BO29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BP29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BQ29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BR29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BS29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BT29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BU29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BV29" s="19" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G30" s="22">
         <v>44114</v>
       </c>
       <c r="H30" s="23">
-        <v>44114</v>
+        <v>44124</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
@@ -5675,16 +5682,36 @@
       <c r="V30" s="19">
         <v>3</v>
       </c>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
+      <c r="W30" s="19">
+        <v>3</v>
+      </c>
+      <c r="X30" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="19">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="19">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="19">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="19">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="19">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="19">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="19">
+        <v>3</v>
+      </c>
+      <c r="AF30" s="19">
+        <v>3</v>
+      </c>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
@@ -5732,18 +5759,18 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G31" s="22">
         <v>44114</v>
       </c>
       <c r="H31" s="23">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -5761,9 +5788,7 @@
       <c r="V31" s="19">
         <v>3</v>
       </c>
-      <c r="W31" s="19">
-        <v>3</v>
-      </c>
+      <c r="W31" s="19"/>
       <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
@@ -5820,18 +5845,18 @@
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G32" s="22">
+        <v>44114</v>
+      </c>
+      <c r="H32" s="23">
         <v>44115</v>
-      </c>
-      <c r="H32" s="23">
-        <v>44118</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -5846,17 +5871,15 @@
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19">
+      <c r="V32" s="19">
         <v>3</v>
       </c>
-      <c r="Y32" s="19">
+      <c r="W32" s="19">
         <v>3</v>
       </c>
-      <c r="Z32" s="19">
-        <v>3</v>
-      </c>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
       <c r="AA32" s="19"/>
       <c r="AB32" s="19"/>
       <c r="AC32" s="19"/>
@@ -5910,18 +5933,18 @@
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="22">
-        <v>44119</v>
+        <v>44115</v>
       </c>
       <c r="H33" s="23">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -5938,12 +5961,16 @@
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19">
+      <c r="X33" s="19">
         <v>3</v>
       </c>
+      <c r="Y33" s="19">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="19">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="19"/>
       <c r="AB33" s="19"/>
       <c r="AC33" s="19"/>
       <c r="AD33" s="19"/>
@@ -5996,18 +6023,18 @@
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G34" s="22">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="H34" s="23">
-        <v>44124</v>
+        <v>44119</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -6027,22 +6054,14 @@
       <c r="X34" s="19"/>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19">
+      <c r="AA34" s="19">
         <v>3</v>
       </c>
-      <c r="AC34" s="19">
-        <v>3</v>
-      </c>
-      <c r="AD34" s="19">
-        <v>3</v>
-      </c>
-      <c r="AE34" s="19">
-        <v>3</v>
-      </c>
-      <c r="AF34" s="19">
-        <v>3</v>
-      </c>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
@@ -6088,278 +6107,102 @@
     </row>
     <row r="35" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="15"/>
-      <c r="B35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
+      <c r="F35" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="22">
+        <v>44120</v>
+      </c>
+      <c r="H35" s="23">
+        <v>44124</v>
+      </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
-      <c r="K35" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="M35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="N35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="O35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="P35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Q35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="R35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="S35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="T35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="U35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="V35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="W35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="X35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Y35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Z35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AA35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AB35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AC35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AD35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AE35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AF35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AG35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AH35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AI35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AJ35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AK35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AL35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AM35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AN35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AO35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AP35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AQ35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AR35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AS35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AT35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AU35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AV35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AW35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AX35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AY35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AZ35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BA35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BB35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BC35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BD35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BE35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BF35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BG35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BH35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BI35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BJ35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BK35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BL35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BM35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BN35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BO35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BP35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BQ35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BR35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BS35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BT35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BU35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="BV35" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19">
+        <v>3</v>
+      </c>
+      <c r="AC35" s="19">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="19">
+        <v>3</v>
+      </c>
+      <c r="AE35" s="19">
+        <v>3</v>
+      </c>
+      <c r="AF35" s="19">
+        <v>3</v>
+      </c>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="19"/>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="19"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="19"/>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="19"/>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="19"/>
+      <c r="AS35" s="19"/>
+      <c r="AT35" s="19"/>
+      <c r="AU35" s="19"/>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="19"/>
+      <c r="AY35" s="19"/>
+      <c r="AZ35" s="19"/>
+      <c r="BA35" s="19"/>
+      <c r="BB35" s="19"/>
+      <c r="BC35" s="19"/>
+      <c r="BD35" s="19"/>
+      <c r="BE35" s="19"/>
+      <c r="BF35" s="19"/>
+      <c r="BG35" s="19"/>
+      <c r="BH35" s="19"/>
+      <c r="BI35" s="19"/>
+      <c r="BJ35" s="19"/>
+      <c r="BK35" s="19"/>
+      <c r="BL35" s="19"/>
+      <c r="BM35" s="19"/>
+      <c r="BN35" s="19"/>
+      <c r="BO35" s="19"/>
+      <c r="BP35" s="19"/>
+      <c r="BQ35" s="19"/>
+      <c r="BR35" s="19"/>
+      <c r="BS35" s="19"/>
+      <c r="BT35" s="19"/>
+      <c r="BU35" s="19"/>
+      <c r="BV35" s="19"/>
     </row>
     <row r="36" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="15"/>
       <c r="B36" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -6458,188 +6301,185 @@
         <v/>
       </c>
       <c r="AG36" s="19" t="str">
-        <f t="shared" ref="L36:BV40" si="86">IF($F36="","",IF((AG$3&gt;=$G36)*AND(AG$3&lt;=$H36),IF($A36="",IF($B36="",3,2),1),""))</f>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AH36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AI36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AJ36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AK36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AL36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AM36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AN36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AO36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AP36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AQ36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AR36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AS36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AT36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AU36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AV36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AW36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AX36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AY36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AZ36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BA36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BB36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BC36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BD36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BE36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BF36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BG36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BH36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BI36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BJ36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BK36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BL36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BM36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BN36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BO36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BP36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BQ36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BR36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BS36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BT36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BU36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="BV36" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="15"/>
       <c r="B37" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
       <c r="F37" s="18"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="23" t="str">
-        <f t="shared" ref="H37:H54" si="87">IF(F37="","",WORKDAY(G37,F37,非稼働日)-1)</f>
-        <v/>
-      </c>
+      <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="19" t="str">
@@ -6647,91 +6487,91 @@
         <v/>
       </c>
       <c r="L37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="M37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="N37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="O37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="P37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="Q37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="R37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="S37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="T37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="V37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="W37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="X37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="Y37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="Z37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AA37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AB37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AC37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AD37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AE37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AF37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG37" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="L37:BV41" si="86">IF($F37="","",IF((AG$3&gt;=$G37)*AND(AG$3&lt;=$H37),IF($A37="",IF($B37="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AH37" s="19" t="str">
@@ -6901,14 +6741,16 @@
     </row>
     <row r="38" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
+      <c r="B38" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
       <c r="F38" s="18"/>
       <c r="G38" s="22"/>
       <c r="H38" s="23" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="H38:H55" si="87">IF(F38="","",WORKDAY(G38,F38,非稼働日)-1)</f>
         <v/>
       </c>
       <c r="I38" s="23"/>
@@ -7556,159 +7398,159 @@
         <v/>
       </c>
       <c r="AJ40" s="19" t="str">
-        <f t="shared" ref="L40:BV44" si="88">IF($F40="","",IF((AJ$3&gt;=$G40)*AND(AJ$3&lt;=$H40),IF($A40="",IF($B40="",3,2),1),""))</f>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AK40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AL40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AM40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AN40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AO40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AP40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AQ40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AR40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AS40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AT40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AU40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AV40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AW40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AX40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AY40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AZ40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BA40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BB40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BC40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BD40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BE40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BF40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BG40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BH40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BI40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BJ40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BK40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BL40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BM40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BN40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BO40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BP40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BQ40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BR40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BS40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BT40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BU40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BV40" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
     </row>
@@ -7731,103 +7573,103 @@
         <v/>
       </c>
       <c r="L41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="M41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="N41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="O41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="P41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Q41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="R41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="T41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="V41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="X41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Y41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Z41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AA41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AB41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AC41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AD41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AE41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AF41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AG41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AI41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AJ41" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="L41:BV45" si="88">IF($F41="","",IF((AJ$3&gt;=$G41)*AND(AJ$3&lt;=$H41),IF($A41="",IF($B41="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AK41" s="19" t="str">
@@ -8652,147 +8494,147 @@
         <v/>
       </c>
       <c r="AM44" s="19" t="str">
-        <f t="shared" ref="L44:BV48" si="89">IF($F44="","",IF((AM$3&gt;=$G44)*AND(AM$3&lt;=$H44),IF($A44="",IF($B44="",3,2),1),""))</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AN44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AO44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AP44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AQ44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AR44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AS44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AT44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AU44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AV44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AW44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AX44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AY44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AZ44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BA44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BB44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BC44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BD44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BE44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BF44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BG44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BH44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BI44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BJ44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BK44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BL44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BM44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BN44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BO44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BP44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BQ44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BR44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BS44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BT44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BU44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BV44" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
     </row>
@@ -8815,115 +8657,115 @@
         <v/>
       </c>
       <c r="L45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="M45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="N45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="O45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="P45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Q45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="R45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="S45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="V45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="W45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="X45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Z45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AA45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AB45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AC45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AD45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AE45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AF45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AG45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AH45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AI45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AK45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AL45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AM45" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="L45:BV49" si="89">IF($F45="","",IF((AM$3&gt;=$G45)*AND(AM$3&lt;=$H45),IF($A45="",IF($B45="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AN45" s="19" t="str">
@@ -9748,135 +9590,135 @@
         <v/>
       </c>
       <c r="AP48" s="19" t="str">
-        <f t="shared" ref="L48:BV52" si="90">IF($F48="","",IF((AP$3&gt;=$G48)*AND(AP$3&lt;=$H48),IF($A48="",IF($B48="",3,2),1),""))</f>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AQ48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AR48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AS48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AT48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AU48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AV48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AW48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AX48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AY48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AZ48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BA48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BB48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BC48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BD48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BE48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BF48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BG48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BH48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BI48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BJ48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BK48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BL48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BM48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BN48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BO48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BP48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BQ48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BR48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BS48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BT48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BU48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BV48" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
     </row>
@@ -9899,127 +9741,127 @@
         <v/>
       </c>
       <c r="L49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="M49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="N49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="O49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="P49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="Q49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="R49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="S49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="T49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="W49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="X49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="Y49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="Z49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AA49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AB49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AC49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AD49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AE49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AF49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AG49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AH49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AI49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AJ49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AL49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AM49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AN49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AO49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AP49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="L49:BV53" si="90">IF($F49="","",IF((AP$3&gt;=$G49)*AND(AP$3&lt;=$H49),IF($A49="",IF($B49="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AQ49" s="19" t="str">
@@ -10844,123 +10686,123 @@
         <v/>
       </c>
       <c r="AS52" s="19" t="str">
-        <f t="shared" ref="L52:BV54" si="91">IF($F52="","",IF((AS$3&gt;=$G52)*AND(AS$3&lt;=$H52),IF($A52="",IF($B52="",3,2),1),""))</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AT52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AU52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AV52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AW52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AX52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AY52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AZ52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BA52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BB52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BC52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BD52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BE52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BF52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BG52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BH52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BI52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BJ52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BK52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BL52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BM52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BN52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BO52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BP52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BQ52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BR52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BS52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BT52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BU52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BV52" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
     </row>
@@ -10983,139 +10825,139 @@
         <v/>
       </c>
       <c r="L53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="N53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="O53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="P53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="Q53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="R53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="S53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="T53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="U53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="V53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="W53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="X53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="Y53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="Z53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AA53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AB53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AC53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AD53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AE53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AF53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AG53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AH53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AI53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AJ53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AK53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AM53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AN53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AO53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AP53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AQ53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AR53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AS53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="L53:BV55" si="91">IF($F53="","",IF((AS$3&gt;=$G53)*AND(AS$3&lt;=$H53),IF($A53="",IF($B53="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AT53" s="19" t="str">
@@ -11507,19 +11349,290 @@
       </c>
     </row>
     <row r="55" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G55" s="20"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="M55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="N55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="O55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="P55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Q55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="R55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="S55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="T55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="U55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="V55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="W55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="X55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Y55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Z55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AA55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AB55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AC55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AD55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AE55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AF55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AG55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AH55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AI55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AJ55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AK55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AL55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AN55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AO55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AP55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AQ55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AR55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AS55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AT55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AU55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AV55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AW55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AX55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AY55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AZ55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BA55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BB55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BC55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BD55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BE55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BF55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BG55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BH55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BI55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BJ55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BK55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BL55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BM55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BN55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BO55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BP55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BQ55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BR55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BS55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BT55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BU55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BV55" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
     </row>
     <row r="56" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11536,7 +11649,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:BV54">
+  <conditionalFormatting sqref="K5:BV55">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCC63CB-480A-4FB2-9638-DA8C367107C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831ACB29-F7CB-4E21-9801-1F820003A027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:BV57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -5300,7 +5300,9 @@
       <c r="H28" s="23">
         <v>44113</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="23">
+        <v>44108</v>
+      </c>
       <c r="J28" s="23"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831ACB29-F7CB-4E21-9801-1F820003A027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9829187-B865-49FD-AA9C-46062E937379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -101,13 +101,6 @@
   </si>
   <si>
     <t>ハシキ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -264,13 +257,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>5.1. 論理設計修正</t>
     <rPh sb="5" eb="7">
       <t>ロンリ</t>
@@ -338,13 +324,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>5日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>7.1. 勉強</t>
     <rPh sb="5" eb="7">
       <t>ベンキョウ</t>
@@ -389,13 +368,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -795,6 +767,12 @@
     <xf numFmtId="179" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -812,12 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS26" sqref="AS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1262,26 +1234,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="K2" s="9">
         <f>K3</f>
         <v>44103</v>
@@ -1798,13 +1770,13 @@
       </c>
     </row>
     <row r="4" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="13" t="s">
         <v>1</v>
       </c>
@@ -1815,10 +1787,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K4" s="14">
         <f>WEEKDAY(K3,1)</f>
@@ -2358,13 +2330,13 @@
     <row r="6" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="25" t="s">
-        <v>10</v>
+      <c r="F6" s="25">
+        <v>1</v>
       </c>
       <c r="G6" s="26">
         <v>44103</v>
@@ -2637,13 +2609,13 @@
     <row r="7" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="25" t="s">
-        <v>10</v>
+      <c r="F7" s="25">
+        <v>1</v>
       </c>
       <c r="G7" s="26">
         <v>44104</v>
@@ -2915,12 +2887,12 @@
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G8" s="26">
         <v>44104</v>
@@ -3004,13 +2976,13 @@
     <row r="9" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="25" t="s">
-        <v>29</v>
+      <c r="F9" s="25">
+        <v>2</v>
       </c>
       <c r="G9" s="26">
         <v>44105</v>
@@ -3101,12 +3073,12 @@
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G10" s="26">
         <v>44105</v>
@@ -3191,12 +3163,12 @@
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" s="26">
         <v>44105</v>
@@ -3281,12 +3253,12 @@
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G12" s="26">
         <v>44106</v>
@@ -3371,12 +3343,12 @@
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G13" s="26">
         <v>44106</v>
@@ -3388,7 +3360,7 @@
         <v>44104</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -3461,23 +3433,23 @@
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="37">
+      <c r="F14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="29">
         <v>44108</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="29">
         <v>44108</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="29">
         <v>44108</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="29">
         <v>44108</v>
       </c>
       <c r="K14" s="19"/>
@@ -3550,13 +3522,13 @@
     <row r="15" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="25" t="s">
-        <v>10</v>
+      <c r="F15" s="25">
+        <v>1</v>
       </c>
       <c r="G15" s="26">
         <v>44107</v>
@@ -3822,12 +3794,12 @@
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G16" s="26">
         <v>44107</v>
@@ -3912,12 +3884,12 @@
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G17" s="26">
         <v>44107</v>
@@ -4002,12 +3974,12 @@
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G18" s="26">
         <v>44107</v>
@@ -4092,12 +4064,12 @@
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
       <c r="F19" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G19" s="26">
         <v>44107</v>
@@ -4181,13 +4153,13 @@
     <row r="20" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="25" t="s">
-        <v>29</v>
+      <c r="F20" s="25">
+        <v>2</v>
       </c>
       <c r="G20" s="26">
         <v>44107</v>
@@ -4461,12 +4433,12 @@
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
       <c r="F21" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G21" s="26">
         <v>44107</v>
@@ -4551,12 +4523,12 @@
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G22" s="26">
         <v>44107</v>
@@ -4641,12 +4613,12 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G23" s="26">
         <v>44107</v>
@@ -4733,12 +4705,12 @@
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
       <c r="F24" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G24" s="26">
         <v>44108</v>
@@ -4824,13 +4796,13 @@
     <row r="25" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="18" t="s">
-        <v>37</v>
+      <c r="F25" s="18">
+        <v>5</v>
       </c>
       <c r="G25" s="22">
         <v>44109</v>
@@ -5103,14 +5075,14 @@
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G26" s="26">
         <v>44109</v>
@@ -5195,14 +5167,14 @@
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G27" s="26">
         <v>44110</v>
@@ -5287,12 +5259,12 @@
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G28" s="22">
         <v>44111</v>
@@ -5378,13 +5350,13 @@
     <row r="29" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="18" t="s">
-        <v>44</v>
+      <c r="F29" s="18">
+        <v>10</v>
       </c>
       <c r="G29" s="22">
         <v>44114</v>
@@ -5655,12 +5627,12 @@
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="18" t="s">
-        <v>44</v>
+      <c r="F30" s="18">
+        <v>10</v>
       </c>
       <c r="G30" s="22">
         <v>44114</v>
@@ -5761,12 +5733,12 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G31" s="22">
         <v>44114</v>
@@ -5847,12 +5819,12 @@
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G32" s="22">
         <v>44114</v>
@@ -5935,12 +5907,12 @@
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G33" s="22">
         <v>44115</v>
@@ -6025,12 +5997,12 @@
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G34" s="22">
         <v>44119</v>
@@ -6111,12 +6083,12 @@
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G35" s="22">
         <v>44120</v>
@@ -6204,14 +6176,20 @@
     <row r="36" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="15"/>
       <c r="B36" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
+      <c r="F36" s="18">
+        <v>20</v>
+      </c>
+      <c r="G36" s="22">
+        <v>44125</v>
+      </c>
+      <c r="H36" s="23">
+        <v>44144</v>
+      </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
       <c r="K36" s="19" t="str">
@@ -6302,85 +6280,85 @@
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="AG36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AH36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AI36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AJ36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AK36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AL36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AM36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AN36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AO36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AP36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AQ36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AR36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AS36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AT36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AU36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AV36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AW36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AX36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AY36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AZ36" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
+      <c r="AG36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AH36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AI36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AK36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AL36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AM36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AN36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AO36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AP36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AQ36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AR36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AS36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AT36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AU36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AV36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AW36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AX36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AY36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AZ36" s="19">
+        <f t="shared" si="85"/>
+        <v>2</v>
       </c>
       <c r="BA36" s="19" t="str">
         <f t="shared" si="85"/>
@@ -6474,14 +6452,20 @@
     <row r="37" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="15"/>
       <c r="B37" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
+      <c r="F37" s="18">
+        <v>20</v>
+      </c>
+      <c r="G37" s="22">
+        <v>44145</v>
+      </c>
+      <c r="H37" s="23">
+        <v>44164</v>
+      </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="19" t="str">
@@ -6652,85 +6636,85 @@
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="BA37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BB37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BC37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BD37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BE37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BF37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BG37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BH37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BI37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BJ37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BK37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BL37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BM37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BN37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BO37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BP37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BQ37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BR37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BS37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BT37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
+      <c r="BA37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BB37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BC37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BD37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BE37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BF37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BG37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BH37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BI37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BJ37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BK37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BL37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BM37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BN37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BO37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BP37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BQ37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BR37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BS37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BT37" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
       </c>
       <c r="BU37" s="19" t="str">
         <f t="shared" si="86"/>
@@ -6744,16 +6728,19 @@
     <row r="38" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="15"/>
       <c r="B38" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23" t="str">
-        <f t="shared" ref="H38:H55" si="87">IF(F38="","",WORKDAY(G38,F38,非稼働日)-1)</f>
-        <v/>
+      <c r="F38" s="18">
+        <v>21</v>
+      </c>
+      <c r="G38" s="22">
+        <v>44165</v>
+      </c>
+      <c r="H38" s="23">
+        <v>44196</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -7005,13 +6992,13 @@
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="BU38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BV38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
+      <c r="BU38" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BV38" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -7023,7 +7010,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="22"/>
       <c r="H39" s="23" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="H38:H55" si="87">IF(F39="","",WORKDAY(G39,F39,非稼働日)-1)</f>
         <v/>
       </c>
       <c r="I39" s="23"/>
@@ -11730,7 +11717,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="33"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="4">
         <v>41434</v>
       </c>
@@ -11741,7 +11728,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="4">
         <v>41440</v>
       </c>
@@ -11752,7 +11739,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="4">
         <v>41441</v>
       </c>
@@ -11763,7 +11750,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="4">
         <v>41447</v>
       </c>
@@ -11774,7 +11761,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="4">
         <v>41448</v>
       </c>
@@ -11785,7 +11772,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="4">
         <v>41454</v>
       </c>
@@ -11796,7 +11783,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="4">
         <v>41455</v>
       </c>
@@ -11807,7 +11794,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="34"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="4">
         <v>41461</v>
       </c>
@@ -11818,7 +11805,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="34"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="4">
         <v>41462</v>
       </c>
@@ -11829,7 +11816,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4">
         <v>41468</v>
       </c>
@@ -11840,7 +11827,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4">
         <v>41469</v>
       </c>
@@ -11851,7 +11838,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="4">
         <v>41475</v>
       </c>
@@ -11862,7 +11849,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="4">
         <v>41476</v>
       </c>
@@ -11873,7 +11860,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="4">
         <v>41482</v>
       </c>
@@ -11884,7 +11871,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="4">
         <v>41483</v>
       </c>
@@ -11895,7 +11882,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="4">
         <v>41489</v>
       </c>
@@ -11906,7 +11893,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="4">
         <v>41490</v>
       </c>
@@ -11917,7 +11904,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="4">
         <v>41496</v>
       </c>
@@ -11928,7 +11915,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="34"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="4">
         <v>41497</v>
       </c>
@@ -11939,7 +11926,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="35"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="4">
         <v>41499</v>
       </c>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9829187-B865-49FD-AA9C-46062E937379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B895B310-D520-4281-B89F-6A80A0C19AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS26" sqref="AS26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -4801,19 +4801,21 @@
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="18">
+      <c r="F25" s="25">
         <v>5</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="26">
         <v>44109</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="27">
         <v>44113</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="27">
         <v>44108</v>
       </c>
-      <c r="J25" s="23"/>
+      <c r="J25" s="27">
+        <v>44109</v>
+      </c>
       <c r="K25" s="19" t="str">
         <f t="shared" si="84"/>
         <v/>
@@ -5263,19 +5265,21 @@
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="26">
         <v>44111</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="27">
         <v>44113</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="27">
         <v>44108</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="27">
+        <v>44109</v>
+      </c>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
@@ -5285,13 +5289,13 @@
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T28" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U28" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
@@ -7010,7 +7014,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="22"/>
       <c r="H39" s="23" t="str">
-        <f t="shared" ref="H38:H55" si="87">IF(F39="","",WORKDAY(G39,F39,非稼働日)-1)</f>
+        <f t="shared" ref="H39:H55" si="87">IF(F39="","",WORKDAY(G39,F39,非稼働日)-1)</f>
         <v/>
       </c>
       <c r="I39" s="23"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B895B310-D520-4281-B89F-6A80A0C19AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A73256-AD15-4C88-AF3E-A1D625FD303B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:BV57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -5368,7 +5368,9 @@
       <c r="H29" s="23">
         <v>44124</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="23">
+        <v>44110</v>
+      </c>
       <c r="J29" s="23"/>
       <c r="K29" s="19" t="str">
         <f t="shared" si="84"/>
@@ -5644,7 +5646,9 @@
       <c r="H30" s="23">
         <v>44124</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="23">
+        <v>44110</v>
+      </c>
       <c r="J30" s="23"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
@@ -5741,17 +5745,21 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="26">
         <v>44114</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="27">
         <v>44114</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="I31" s="27">
+        <v>44110</v>
+      </c>
+      <c r="J31" s="27">
+        <v>44111</v>
+      </c>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
@@ -5764,7 +5772,7 @@
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W31" s="19"/>
       <c r="X31" s="19"/>
@@ -5827,17 +5835,21 @@
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="26">
         <v>44114</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="27">
         <v>44115</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="I32" s="27">
+        <v>44110</v>
+      </c>
+      <c r="J32" s="27">
+        <v>44111</v>
+      </c>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -5850,10 +5862,10 @@
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
       <c r="V32" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W32" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X32" s="19"/>
       <c r="Y32" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A73256-AD15-4C88-AF3E-A1D625FD303B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BC607A-2440-47D5-8FF3-A40EEDDB4CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:BV57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -5927,17 +5927,21 @@
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="26">
         <v>44115</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="27">
         <v>44118</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="I33" s="27">
+        <v>44111</v>
+      </c>
+      <c r="J33" s="27">
+        <v>44111</v>
+      </c>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -5952,13 +5956,13 @@
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
       <c r="X33" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y33" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z33" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA33" s="19"/>
       <c r="AB33" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BC607A-2440-47D5-8FF3-A40EEDDB4CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0F0BC7-676E-452E-95BD-88BA4E955FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:BV57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -6030,7 +6030,9 @@
       <c r="H34" s="23">
         <v>44119</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="23">
+        <v>44111</v>
+      </c>
       <c r="J34" s="23"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
@@ -6116,7 +6118,9 @@
       <c r="H35" s="23">
         <v>44124</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="23">
+        <v>44111</v>
+      </c>
       <c r="J35" s="23"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0F0BC7-676E-452E-95BD-88BA4E955FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57EA848-2E72-431F-9347-5A36B719A8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,10 +1217,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BV57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -6021,19 +6022,21 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="26">
         <v>44119</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="27">
         <v>44119</v>
       </c>
-      <c r="I34" s="23">
-        <v>44111</v>
-      </c>
-      <c r="J34" s="23"/>
+      <c r="I34" s="27">
+        <v>44112</v>
+      </c>
+      <c r="J34" s="27">
+        <v>44112</v>
+      </c>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -6051,7 +6054,7 @@
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB34" s="19"/>
       <c r="AC34" s="19"/>
@@ -11701,6 +11704,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11995,6 +11999,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57EA848-2E72-431F-9347-5A36B719A8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F70B19-792C-41F4-8F39-05D6F131AD3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -439,6 +439,83 @@
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.1. ドメイン作成</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.2. インターフェース作成</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.3. /users/login</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/token</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.4. /users</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.5. /wordlists</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.6. /words</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.7. /scores</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.8. 仕様の修正</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.9. Qiita記事投稿</t>
+    <rPh sb="10" eb="14">
+      <t>キジトウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.8. 実行環境整備</t>
+    <rPh sb="5" eb="9">
+      <t>ジッコウカンキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20h</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1218,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BV57"/>
+  <dimension ref="A1:BV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -2355,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="19" t="str">
-        <f t="shared" ref="K6:Z55" si="84">IF($F6="","",IF((L$3&gt;=$G6)*AND(L$3&lt;=$H6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" ref="K6:Z65" si="84">IF($F6="","",IF((L$3&gt;=$G6)*AND(L$3&lt;=$H6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="M6" s="19" t="str">
@@ -4250,7 +4327,7 @@
         <v/>
       </c>
       <c r="AD20" s="19" t="str">
-        <f t="shared" ref="L20:BV37" si="85">IF($F20="","",IF((AD$3&gt;=$G20)*AND(AD$3&lt;=$H20),IF($A20="",IF($B20="",3,2),1),""))</f>
+        <f t="shared" ref="L20:BV47" si="85">IF($F20="","",IF((AD$3&gt;=$G20)*AND(AD$3&lt;=$H20),IF($A20="",IF($B20="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE20" s="19" t="str">
@@ -5360,19 +5437,21 @@
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="18">
+      <c r="F29" s="25">
         <v>10</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="26">
         <v>44114</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="27">
         <v>44124</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="27">
         <v>44110</v>
       </c>
-      <c r="J29" s="23"/>
+      <c r="J29" s="27">
+        <v>44119</v>
+      </c>
       <c r="K29" s="19" t="str">
         <f t="shared" si="84"/>
         <v/>
@@ -5638,19 +5717,21 @@
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="18">
+      <c r="F30" s="25">
         <v>10</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="26">
         <v>44114</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="27">
         <v>44124</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="27">
         <v>44110</v>
       </c>
-      <c r="J30" s="23"/>
+      <c r="J30" s="27">
+        <v>44119</v>
+      </c>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
@@ -5663,37 +5744,37 @@
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF30" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
@@ -6112,19 +6193,21 @@
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="26">
         <v>44120</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="27">
         <v>44124</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="27">
         <v>44111</v>
       </c>
-      <c r="J35" s="23"/>
+      <c r="J35" s="27">
+        <v>44119</v>
+      </c>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
@@ -6143,19 +6226,19 @@
       <c r="Z35" s="19"/>
       <c r="AA35" s="19"/>
       <c r="AB35" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC35" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD35" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE35" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF35" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
@@ -6217,7 +6300,9 @@
       <c r="H36" s="23">
         <v>44144</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="23">
+        <v>44121</v>
+      </c>
       <c r="J36" s="23"/>
       <c r="K36" s="19" t="str">
         <f t="shared" si="84"/>
@@ -6478,2735 +6563,862 @@
     </row>
     <row r="37" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="15"/>
-      <c r="B37" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="18">
-        <v>20</v>
+      <c r="F37" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="G37" s="22">
-        <v>44145</v>
+        <v>44125</v>
       </c>
       <c r="H37" s="23">
-        <v>44164</v>
+        <v>44125</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
-      <c r="K37" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="M37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="N37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="O37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="P37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Q37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="R37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="S37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="T37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="U37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="V37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="W37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="X37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Y37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Z37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AA37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AB37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AC37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AD37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AE37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AF37" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AG37" s="19" t="str">
-        <f t="shared" ref="L37:BV41" si="86">IF($F37="","",IF((AG$3&gt;=$G37)*AND(AG$3&lt;=$H37),IF($A37="",IF($B37="",3,2),1),""))</f>
-        <v/>
-      </c>
-      <c r="AH37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AI37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AJ37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AK37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AL37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AM37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AN37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AO37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AP37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AQ37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AR37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AS37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AT37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AU37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AV37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AW37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AX37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AY37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AZ37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BA37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BB37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BC37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BD37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BE37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BF37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BG37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BH37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BI37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BJ37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BK37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BL37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BM37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BN37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BO37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BP37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BQ37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BR37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BS37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BT37" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BU37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BV37" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="19"/>
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="19"/>
+      <c r="AS37" s="19"/>
+      <c r="AT37" s="19"/>
+      <c r="AU37" s="19"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19"/>
+      <c r="BA37" s="19"/>
+      <c r="BB37" s="19"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="19"/>
+      <c r="BE37" s="19"/>
+      <c r="BF37" s="19"/>
+      <c r="BG37" s="19"/>
+      <c r="BH37" s="19"/>
+      <c r="BI37" s="19"/>
+      <c r="BJ37" s="19"/>
+      <c r="BK37" s="19"/>
+      <c r="BL37" s="19"/>
+      <c r="BM37" s="19"/>
+      <c r="BN37" s="19"/>
+      <c r="BO37" s="19"/>
+      <c r="BP37" s="19"/>
+      <c r="BQ37" s="19"/>
+      <c r="BR37" s="19"/>
+      <c r="BS37" s="19"/>
+      <c r="BT37" s="19"/>
+      <c r="BU37" s="19"/>
+      <c r="BV37" s="19"/>
     </row>
     <row r="38" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="15"/>
-      <c r="B38" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="18">
-        <v>21</v>
+      <c r="F38" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="G38" s="22">
-        <v>44165</v>
+        <v>44125</v>
       </c>
       <c r="H38" s="23">
-        <v>44196</v>
+        <v>44125</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
-      <c r="K38" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="M38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="N38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="O38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="P38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Q38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="R38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="S38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="T38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="U38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="V38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="W38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="X38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Y38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Z38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AA38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AB38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AC38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AD38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AE38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AF38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AG38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AH38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AI38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AJ38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AK38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AL38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AM38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AN38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AO38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AP38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AQ38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AR38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AS38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AT38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AU38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AV38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AW38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AX38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AY38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AZ38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BA38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BB38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BC38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BD38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BE38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BF38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BG38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BH38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BI38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BJ38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BK38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BL38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BM38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BN38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BO38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BP38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BQ38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BR38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BS38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BT38" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BU38" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BV38" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
+      <c r="AU38" s="19"/>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="19"/>
+      <c r="AZ38" s="19"/>
+      <c r="BA38" s="19"/>
+      <c r="BB38" s="19"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19"/>
+      <c r="BF38" s="19"/>
+      <c r="BG38" s="19"/>
+      <c r="BH38" s="19"/>
+      <c r="BI38" s="19"/>
+      <c r="BJ38" s="19"/>
+      <c r="BK38" s="19"/>
+      <c r="BL38" s="19"/>
+      <c r="BM38" s="19"/>
+      <c r="BN38" s="19"/>
+      <c r="BO38" s="19"/>
+      <c r="BP38" s="19"/>
+      <c r="BQ38" s="19"/>
+      <c r="BR38" s="19"/>
+      <c r="BS38" s="19"/>
+      <c r="BT38" s="19"/>
+      <c r="BU38" s="19"/>
+      <c r="BV38" s="19"/>
     </row>
     <row r="39" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23" t="str">
-        <f t="shared" ref="H39:H55" si="87">IF(F39="","",WORKDAY(G39,F39,非稼働日)-1)</f>
-        <v/>
+      <c r="E39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="22">
+        <v>44125</v>
+      </c>
+      <c r="H39" s="23">
+        <v>44126</v>
       </c>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
-      <c r="K39" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="M39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="N39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="O39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="P39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Q39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="R39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="S39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="T39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="U39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="V39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="W39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="X39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Y39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Z39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AA39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AB39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AC39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AD39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AE39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AF39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AG39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AH39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AI39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AJ39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AK39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AL39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AM39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AN39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AO39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AP39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AQ39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AR39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AS39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AT39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AU39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AV39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AW39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AX39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AY39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AZ39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BA39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BB39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BC39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BD39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BE39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BF39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BG39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BH39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BI39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BJ39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BK39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BL39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BM39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BN39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BO39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BP39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BQ39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BR39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BS39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BT39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BU39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BV39" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="19"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="19"/>
+      <c r="AQ39" s="19"/>
+      <c r="AR39" s="19"/>
+      <c r="AS39" s="19"/>
+      <c r="AT39" s="19"/>
+      <c r="AU39" s="19"/>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="19"/>
+      <c r="AY39" s="19"/>
+      <c r="AZ39" s="19"/>
+      <c r="BA39" s="19"/>
+      <c r="BB39" s="19"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="19"/>
+      <c r="BE39" s="19"/>
+      <c r="BF39" s="19"/>
+      <c r="BG39" s="19"/>
+      <c r="BH39" s="19"/>
+      <c r="BI39" s="19"/>
+      <c r="BJ39" s="19"/>
+      <c r="BK39" s="19"/>
+      <c r="BL39" s="19"/>
+      <c r="BM39" s="19"/>
+      <c r="BN39" s="19"/>
+      <c r="BO39" s="19"/>
+      <c r="BP39" s="19"/>
+      <c r="BQ39" s="19"/>
+      <c r="BR39" s="19"/>
+      <c r="BS39" s="19"/>
+      <c r="BT39" s="19"/>
+      <c r="BU39" s="19"/>
+      <c r="BV39" s="19"/>
     </row>
     <row r="40" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="C40" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v/>
+      <c r="F40" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="22">
+        <v>44126</v>
+      </c>
+      <c r="H40" s="23">
+        <v>44127</v>
       </c>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
-      <c r="K40" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="M40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="N40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="O40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="P40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Q40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="R40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="S40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="T40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="U40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="V40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="W40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="X40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Y40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Z40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AA40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AB40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AC40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AD40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AE40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AF40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AG40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AH40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AI40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AJ40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AK40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AL40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AM40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AN40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AO40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AP40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AQ40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AR40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AS40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AT40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AU40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AV40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AW40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AX40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AY40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AZ40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BA40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BB40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BC40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BD40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BE40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BF40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BG40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BH40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BI40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BJ40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BK40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BL40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BM40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BN40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BO40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BP40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BQ40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BR40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BS40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BT40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BU40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BV40" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="19"/>
+      <c r="AZ40" s="19"/>
+      <c r="BA40" s="19"/>
+      <c r="BB40" s="19"/>
+      <c r="BC40" s="19"/>
+      <c r="BD40" s="19"/>
+      <c r="BE40" s="19"/>
+      <c r="BF40" s="19"/>
+      <c r="BG40" s="19"/>
+      <c r="BH40" s="19"/>
+      <c r="BI40" s="19"/>
+      <c r="BJ40" s="19"/>
+      <c r="BK40" s="19"/>
+      <c r="BL40" s="19"/>
+      <c r="BM40" s="19"/>
+      <c r="BN40" s="19"/>
+      <c r="BO40" s="19"/>
+      <c r="BP40" s="19"/>
+      <c r="BQ40" s="19"/>
+      <c r="BR40" s="19"/>
+      <c r="BS40" s="19"/>
+      <c r="BT40" s="19"/>
+      <c r="BU40" s="19"/>
+      <c r="BV40" s="19"/>
     </row>
     <row r="41" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="C41" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="D41" s="16"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v/>
+      <c r="F41" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="22">
+        <v>44127</v>
+      </c>
+      <c r="H41" s="23">
+        <v>44128</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
-      <c r="K41" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="M41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="N41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="O41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="P41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Q41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="R41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="S41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="T41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="U41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="V41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="W41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="X41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Y41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="Z41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AA41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AB41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AC41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AD41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AE41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AF41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AG41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AH41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AI41" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AJ41" s="19" t="str">
-        <f t="shared" ref="L41:BV45" si="88">IF($F41="","",IF((AJ$3&gt;=$G41)*AND(AJ$3&lt;=$H41),IF($A41="",IF($B41="",3,2),1),""))</f>
-        <v/>
-      </c>
-      <c r="AK41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AL41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AM41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AN41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AO41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AP41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AQ41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AR41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AS41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AT41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AU41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AV41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AW41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AX41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AY41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AZ41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BA41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BB41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BC41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BD41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BE41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BF41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BG41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BH41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BI41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BJ41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BK41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BL41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BM41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BN41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BO41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BP41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BQ41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BR41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BS41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BT41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BU41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BV41" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="19"/>
+      <c r="AK41" s="19"/>
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="19"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="19"/>
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="19"/>
+      <c r="AS41" s="19"/>
+      <c r="AT41" s="19"/>
+      <c r="AU41" s="19"/>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="19"/>
+      <c r="AZ41" s="19"/>
+      <c r="BA41" s="19"/>
+      <c r="BB41" s="19"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="19"/>
+      <c r="BE41" s="19"/>
+      <c r="BF41" s="19"/>
+      <c r="BG41" s="19"/>
+      <c r="BH41" s="19"/>
+      <c r="BI41" s="19"/>
+      <c r="BJ41" s="19"/>
+      <c r="BK41" s="19"/>
+      <c r="BL41" s="19"/>
+      <c r="BM41" s="19"/>
+      <c r="BN41" s="19"/>
+      <c r="BO41" s="19"/>
+      <c r="BP41" s="19"/>
+      <c r="BQ41" s="19"/>
+      <c r="BR41" s="19"/>
+      <c r="BS41" s="19"/>
+      <c r="BT41" s="19"/>
+      <c r="BU41" s="19"/>
+      <c r="BV41" s="19"/>
     </row>
     <row r="42" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="C42" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v/>
+      <c r="F42" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="22">
+        <v>44128</v>
+      </c>
+      <c r="H42" s="23">
+        <v>44129</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
-      <c r="K42" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="M42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="N42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="O42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="P42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Q42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="R42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="S42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="T42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="U42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="V42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="W42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="X42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Y42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Z42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AA42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AB42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AC42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AD42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AE42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AF42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AG42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AH42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AI42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AJ42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AK42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AL42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AM42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AN42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AO42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AP42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AQ42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AR42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AS42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AT42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AU42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AV42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AW42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AX42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AY42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AZ42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BA42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BB42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BC42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BD42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BE42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BF42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BG42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BH42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BI42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BJ42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BK42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BL42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BM42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BN42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BO42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BP42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BQ42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BR42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BS42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BT42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BU42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BV42" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="19"/>
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="19"/>
+      <c r="AQ42" s="19"/>
+      <c r="AR42" s="19"/>
+      <c r="AS42" s="19"/>
+      <c r="AT42" s="19"/>
+      <c r="AU42" s="19"/>
+      <c r="AV42" s="19"/>
+      <c r="AW42" s="19"/>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="19"/>
+      <c r="AZ42" s="19"/>
+      <c r="BA42" s="19"/>
+      <c r="BB42" s="19"/>
+      <c r="BC42" s="19"/>
+      <c r="BD42" s="19"/>
+      <c r="BE42" s="19"/>
+      <c r="BF42" s="19"/>
+      <c r="BG42" s="19"/>
+      <c r="BH42" s="19"/>
+      <c r="BI42" s="19"/>
+      <c r="BJ42" s="19"/>
+      <c r="BK42" s="19"/>
+      <c r="BL42" s="19"/>
+      <c r="BM42" s="19"/>
+      <c r="BN42" s="19"/>
+      <c r="BO42" s="19"/>
+      <c r="BP42" s="19"/>
+      <c r="BQ42" s="19"/>
+      <c r="BR42" s="19"/>
+      <c r="BS42" s="19"/>
+      <c r="BT42" s="19"/>
+      <c r="BU42" s="19"/>
+      <c r="BV42" s="19"/>
     </row>
     <row r="43" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="C43" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v/>
+      <c r="F43" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="22">
+        <v>44129</v>
+      </c>
+      <c r="H43" s="23">
+        <v>44129</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
-      <c r="K43" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="M43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="N43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="O43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="P43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Q43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="R43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="S43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="T43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="U43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="V43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="W43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="X43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Y43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Z43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AA43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AB43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AC43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AD43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AE43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AF43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AG43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AH43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AI43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AJ43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AK43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AL43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AM43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AN43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AO43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AP43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AQ43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AR43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AS43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AT43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AU43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AV43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AW43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AX43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AY43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AZ43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BA43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BB43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BC43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BD43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BE43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BF43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BG43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BH43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BI43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BJ43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BK43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BL43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BM43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BN43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BO43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BP43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BQ43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BR43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BS43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BT43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BU43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BV43" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="19"/>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="19"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="19"/>
+      <c r="AQ43" s="19"/>
+      <c r="AR43" s="19"/>
+      <c r="AS43" s="19"/>
+      <c r="AT43" s="19"/>
+      <c r="AU43" s="19"/>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="19"/>
+      <c r="AY43" s="19"/>
+      <c r="AZ43" s="19"/>
+      <c r="BA43" s="19"/>
+      <c r="BB43" s="19"/>
+      <c r="BC43" s="19"/>
+      <c r="BD43" s="19"/>
+      <c r="BE43" s="19"/>
+      <c r="BF43" s="19"/>
+      <c r="BG43" s="19"/>
+      <c r="BH43" s="19"/>
+      <c r="BI43" s="19"/>
+      <c r="BJ43" s="19"/>
+      <c r="BK43" s="19"/>
+      <c r="BL43" s="19"/>
+      <c r="BM43" s="19"/>
+      <c r="BN43" s="19"/>
+      <c r="BO43" s="19"/>
+      <c r="BP43" s="19"/>
+      <c r="BQ43" s="19"/>
+      <c r="BR43" s="19"/>
+      <c r="BS43" s="19"/>
+      <c r="BT43" s="19"/>
+      <c r="BU43" s="19"/>
+      <c r="BV43" s="19"/>
     </row>
     <row r="44" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="C44" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v/>
+      <c r="F44" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="22">
+        <v>44130</v>
+      </c>
+      <c r="H44" s="23">
+        <v>44131</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
-      <c r="K44" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="M44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="N44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="O44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="P44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Q44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="R44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="S44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="T44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="U44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="V44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="W44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="X44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Y44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Z44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AA44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AB44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AC44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AD44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AE44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AF44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AG44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AH44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AI44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AJ44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AK44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AL44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AM44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AN44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AO44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AP44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AQ44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AR44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AS44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AT44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AU44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AV44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AW44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AX44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AY44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AZ44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BA44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BB44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BC44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BD44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BE44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BF44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BG44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BH44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BI44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BJ44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BK44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BL44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BM44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BN44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BO44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BP44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BQ44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BR44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BS44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BT44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BU44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="BV44" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="19"/>
+      <c r="AK44" s="19"/>
+      <c r="AL44" s="19"/>
+      <c r="AM44" s="19"/>
+      <c r="AN44" s="19"/>
+      <c r="AO44" s="19"/>
+      <c r="AP44" s="19"/>
+      <c r="AQ44" s="19"/>
+      <c r="AR44" s="19"/>
+      <c r="AS44" s="19"/>
+      <c r="AT44" s="19"/>
+      <c r="AU44" s="19"/>
+      <c r="AV44" s="19"/>
+      <c r="AW44" s="19"/>
+      <c r="AX44" s="19"/>
+      <c r="AY44" s="19"/>
+      <c r="AZ44" s="19"/>
+      <c r="BA44" s="19"/>
+      <c r="BB44" s="19"/>
+      <c r="BC44" s="19"/>
+      <c r="BD44" s="19"/>
+      <c r="BE44" s="19"/>
+      <c r="BF44" s="19"/>
+      <c r="BG44" s="19"/>
+      <c r="BH44" s="19"/>
+      <c r="BI44" s="19"/>
+      <c r="BJ44" s="19"/>
+      <c r="BK44" s="19"/>
+      <c r="BL44" s="19"/>
+      <c r="BM44" s="19"/>
+      <c r="BN44" s="19"/>
+      <c r="BO44" s="19"/>
+      <c r="BP44" s="19"/>
+      <c r="BQ44" s="19"/>
+      <c r="BR44" s="19"/>
+      <c r="BS44" s="19"/>
+      <c r="BT44" s="19"/>
+      <c r="BU44" s="19"/>
+      <c r="BV44" s="19"/>
     </row>
     <row r="45" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="C45" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="D45" s="16"/>
       <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v/>
+      <c r="F45" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="22">
+        <v>44131</v>
+      </c>
+      <c r="H45" s="23">
+        <v>44133</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
-      <c r="K45" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="M45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="N45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="O45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="P45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Q45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="R45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="S45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="T45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="U45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="V45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="W45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="X45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Y45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="Z45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AA45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AB45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AC45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AD45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AE45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AF45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AG45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AH45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AI45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AJ45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AK45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AL45" s="19" t="str">
-        <f t="shared" si="88"/>
-        <v/>
-      </c>
-      <c r="AM45" s="19" t="str">
-        <f t="shared" ref="L45:BV49" si="89">IF($F45="","",IF((AM$3&gt;=$G45)*AND(AM$3&lt;=$H45),IF($A45="",IF($B45="",3,2),1),""))</f>
-        <v/>
-      </c>
-      <c r="AN45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AO45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AP45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AQ45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AR45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AS45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AT45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AU45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AV45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AW45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AX45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AY45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AZ45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BA45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BB45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BC45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BD45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BE45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BF45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BG45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BH45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BI45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BJ45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BK45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BL45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BM45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BN45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BO45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BP45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BQ45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BR45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BS45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BT45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BU45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BV45" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="19"/>
+      <c r="AJ45" s="19"/>
+      <c r="AK45" s="19"/>
+      <c r="AL45" s="19"/>
+      <c r="AM45" s="19"/>
+      <c r="AN45" s="19"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="19"/>
+      <c r="AQ45" s="19"/>
+      <c r="AR45" s="19"/>
+      <c r="AS45" s="19"/>
+      <c r="AT45" s="19"/>
+      <c r="AU45" s="19"/>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="19"/>
+      <c r="AY45" s="19"/>
+      <c r="AZ45" s="19"/>
+      <c r="BA45" s="19"/>
+      <c r="BB45" s="19"/>
+      <c r="BC45" s="19"/>
+      <c r="BD45" s="19"/>
+      <c r="BE45" s="19"/>
+      <c r="BF45" s="19"/>
+      <c r="BG45" s="19"/>
+      <c r="BH45" s="19"/>
+      <c r="BI45" s="19"/>
+      <c r="BJ45" s="19"/>
+      <c r="BK45" s="19"/>
+      <c r="BL45" s="19"/>
+      <c r="BM45" s="19"/>
+      <c r="BN45" s="19"/>
+      <c r="BO45" s="19"/>
+      <c r="BP45" s="19"/>
+      <c r="BQ45" s="19"/>
+      <c r="BR45" s="19"/>
+      <c r="BS45" s="19"/>
+      <c r="BT45" s="19"/>
+      <c r="BU45" s="19"/>
+      <c r="BV45" s="19"/>
     </row>
     <row r="46" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="C46" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="D46" s="16"/>
       <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v/>
+      <c r="F46" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="22">
+        <v>44133</v>
+      </c>
+      <c r="H46" s="23">
+        <v>44144</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
-      <c r="K46" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="M46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="N46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="O46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="P46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="Q46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="R46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="S46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="T46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="U46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="V46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="W46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="X46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="Y46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="Z46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AA46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AB46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AC46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AD46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AE46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AF46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AG46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AH46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AI46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AJ46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AK46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AL46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AM46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AN46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AO46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AP46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AQ46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AR46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AS46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AT46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AU46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AV46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AW46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AX46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AY46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AZ46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BA46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BB46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BC46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BD46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BE46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BF46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BG46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BH46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BI46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BJ46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BK46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BL46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BM46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BN46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BO46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BP46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BQ46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BR46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BS46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BT46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BU46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BV46" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="19"/>
+      <c r="AL46" s="19"/>
+      <c r="AM46" s="19"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="19"/>
+      <c r="AQ46" s="19"/>
+      <c r="AR46" s="19"/>
+      <c r="AS46" s="19"/>
+      <c r="AT46" s="19"/>
+      <c r="AU46" s="19"/>
+      <c r="AV46" s="19"/>
+      <c r="AW46" s="19"/>
+      <c r="AX46" s="19"/>
+      <c r="AY46" s="19"/>
+      <c r="AZ46" s="19"/>
+      <c r="BA46" s="19"/>
+      <c r="BB46" s="19"/>
+      <c r="BC46" s="19"/>
+      <c r="BD46" s="19"/>
+      <c r="BE46" s="19"/>
+      <c r="BF46" s="19"/>
+      <c r="BG46" s="19"/>
+      <c r="BH46" s="19"/>
+      <c r="BI46" s="19"/>
+      <c r="BJ46" s="19"/>
+      <c r="BK46" s="19"/>
+      <c r="BL46" s="19"/>
+      <c r="BM46" s="19"/>
+      <c r="BN46" s="19"/>
+      <c r="BO46" s="19"/>
+      <c r="BP46" s="19"/>
+      <c r="BQ46" s="19"/>
+      <c r="BR46" s="19"/>
+      <c r="BS46" s="19"/>
+      <c r="BT46" s="19"/>
+      <c r="BU46" s="19"/>
+      <c r="BV46" s="19"/>
     </row>
     <row r="47" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
+      <c r="B47" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v/>
+      <c r="F47" s="18">
+        <v>20</v>
+      </c>
+      <c r="G47" s="22">
+        <v>44145</v>
+      </c>
+      <c r="H47" s="23">
+        <v>44164</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
@@ -9215,269 +7427,274 @@
         <v/>
       </c>
       <c r="L47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="M47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="N47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="O47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="P47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="Q47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="R47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="S47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="T47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="V47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="W47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="X47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="Y47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="Z47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AA47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AB47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AC47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AD47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AE47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AF47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="L47:BV51" si="86">IF($F47="","",IF((AG$3&gt;=$G47)*AND(AG$3&lt;=$H47),IF($A47="",IF($B47="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AH47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AI47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AJ47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AK47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AL47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AM47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AN47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AO47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AP47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AQ47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AR47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AS47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AT47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AU47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AV47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AW47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AX47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AY47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AZ47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BA47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BB47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BC47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BD47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BE47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BF47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BG47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BH47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BI47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BJ47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BK47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BL47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BM47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BN47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BO47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BP47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BQ47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BR47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BS47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BT47" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="BA47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BB47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BC47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BD47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BE47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BF47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BG47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BH47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BI47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BJ47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BK47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BL47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BM47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BN47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BO47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BP47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BQ47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BR47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BS47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BT47" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
       </c>
       <c r="BU47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BV47" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v/>
+      <c r="F48" s="18">
+        <v>21</v>
+      </c>
+      <c r="G48" s="22">
+        <v>44165</v>
+      </c>
+      <c r="H48" s="23">
+        <v>44196</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
@@ -9486,256 +7703,256 @@
         <v/>
       </c>
       <c r="L48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="M48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="N48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="O48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="P48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Q48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="R48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="T48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="V48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="X48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Y48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Z48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AA48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AB48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AC48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AD48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AE48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AF48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AG48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AI48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AJ48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AK48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AL48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AM48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AN48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AO48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AP48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AQ48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AR48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AS48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AT48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AU48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AV48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AW48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AX48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AY48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AZ48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BA48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BB48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BC48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BD48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BE48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BF48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BG48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BH48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BI48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BJ48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BK48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BL48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BM48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BN48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BO48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BP48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BQ48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BR48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BS48" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BT48" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BU48" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="BV48" s="19" t="str">
-        <f t="shared" si="89"/>
-        <v/>
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="BU48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BV48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -9747,7 +7964,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="22"/>
       <c r="H49" s="23" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="H49:H65" si="87">IF(F49="","",WORKDAY(G49,F49,非稼働日)-1)</f>
         <v/>
       </c>
       <c r="I49" s="23"/>
@@ -9757,255 +7974,255 @@
         <v/>
       </c>
       <c r="L49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="M49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="N49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="O49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="P49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Q49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="R49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="T49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="V49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="X49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Y49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Z49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AA49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AB49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AC49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AD49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AE49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AF49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AG49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AI49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AJ49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AK49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AL49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AM49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AN49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AO49" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AP49" s="19" t="str">
-        <f t="shared" ref="L49:BV53" si="90">IF($F49="","",IF((AP$3&gt;=$G49)*AND(AP$3&lt;=$H49),IF($A49="",IF($B49="",3,2),1),""))</f>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AQ49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AR49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AS49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AT49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AU49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AV49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AW49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AX49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AY49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AZ49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BA49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BB49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BC49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BD49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BE49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BF49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BG49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BH49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BI49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BJ49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BK49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BL49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BM49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BN49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BO49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BP49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BQ49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BR49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BS49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BT49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BU49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BV49" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
     </row>
@@ -10028,255 +8245,255 @@
         <v/>
       </c>
       <c r="L50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="M50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="N50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="O50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="P50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Q50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="R50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="T50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="V50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="X50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Y50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Z50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AA50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AB50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AC50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AD50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AE50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AF50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AG50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AI50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AJ50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AK50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AL50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AM50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AN50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AO50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AP50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AQ50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AR50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AS50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AT50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AU50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AV50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AW50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AX50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AY50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AZ50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BA50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BB50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BC50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BD50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BE50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BF50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BG50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BH50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BI50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BJ50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BK50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BL50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BM50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BN50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BO50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BP50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BQ50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BR50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BS50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BT50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BU50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BV50" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
     </row>
@@ -10299,255 +8516,255 @@
         <v/>
       </c>
       <c r="L51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="M51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="N51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="O51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="P51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Q51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="R51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="T51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="V51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="X51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Y51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Z51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AA51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AB51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AC51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AD51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AE51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AF51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AG51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AI51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AJ51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="L51:BV55" si="88">IF($F51="","",IF((AJ$3&gt;=$G51)*AND(AJ$3&lt;=$H51),IF($A51="",IF($B51="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AK51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AL51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AM51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AN51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AO51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AP51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AQ51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AR51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AS51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AT51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AU51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AV51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AW51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AX51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AY51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AZ51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BA51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BB51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BC51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BD51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BE51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BF51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BG51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BH51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BI51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BJ51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BK51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BL51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BM51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BN51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BO51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BP51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BQ51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BR51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BS51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BT51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BU51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BV51" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
     </row>
@@ -10570,255 +8787,255 @@
         <v/>
       </c>
       <c r="L52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="M52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="N52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="O52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="P52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Q52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="R52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="S52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="V52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="W52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="X52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Z52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AA52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AB52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AC52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AD52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AE52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AF52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AG52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AH52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AI52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AK52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AL52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AM52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AN52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AO52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AP52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AQ52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AR52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AS52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AT52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AU52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AV52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AW52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AX52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AY52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AZ52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BA52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BB52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BC52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BD52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BE52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BF52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BG52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BH52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BI52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BJ52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BK52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BL52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BM52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BN52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BO52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BP52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BQ52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BR52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BS52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BT52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BU52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BV52" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
     </row>
@@ -10841,255 +9058,255 @@
         <v/>
       </c>
       <c r="L53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="M53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="N53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="O53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="P53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Q53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="R53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="S53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="V53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="W53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="X53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Z53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AA53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AB53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AC53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AD53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AE53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AF53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AG53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AH53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AI53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AK53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AL53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AM53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AN53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AO53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AP53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AQ53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AR53" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AS53" s="19" t="str">
-        <f t="shared" ref="L53:BV55" si="91">IF($F53="","",IF((AS$3&gt;=$G53)*AND(AS$3&lt;=$H53),IF($A53="",IF($B53="",3,2),1),""))</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AT53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AU53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AV53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AW53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AX53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AY53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AZ53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BA53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BB53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BC53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BD53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BE53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BF53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BG53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BH53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BI53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BJ53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BK53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BL53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BM53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BN53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BO53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BP53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BQ53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BR53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BS53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BT53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BU53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BV53" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
     </row>
@@ -11112,255 +9329,255 @@
         <v/>
       </c>
       <c r="L54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="M54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="N54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="O54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="P54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Q54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="R54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="S54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="V54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="W54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="X54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Z54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AA54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AB54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AC54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AD54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AE54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AF54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AG54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AH54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AI54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AK54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AL54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AM54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AN54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AO54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AP54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AQ54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AR54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AS54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AT54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AU54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AV54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AW54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AX54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AY54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AZ54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BA54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BB54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BC54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BD54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BE54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BF54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BG54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BH54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BI54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BJ54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BK54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BL54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BM54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BN54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BO54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BP54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BQ54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BR54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BS54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BT54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BU54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BV54" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
     </row>
@@ -11383,272 +9600,2982 @@
         <v/>
       </c>
       <c r="L55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="M55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="N55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="O55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="P55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Q55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="R55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="S55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="V55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="W55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="X55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Z55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AA55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AB55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AC55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AD55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AE55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AF55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AG55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AH55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AI55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AK55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AL55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AM55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="L55:BV59" si="89">IF($F55="","",IF((AM$3&gt;=$G55)*AND(AM$3&lt;=$H55),IF($A55="",IF($B55="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AN55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AO55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AP55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AQ55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AR55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AS55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AT55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AU55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AV55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AW55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AX55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AY55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AZ55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BA55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BB55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BC55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BD55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BE55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BF55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BG55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BH55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BI55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BJ55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BK55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BL55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BM55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BN55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BO55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BP55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BQ55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BR55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BS55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BT55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BU55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BV55" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G56" s="20"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="M56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="N56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="O56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="P56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Q56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="R56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="S56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="T56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="U56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="V56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="W56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="X56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Y56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Z56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AA56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AB56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AC56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AD56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AE56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AF56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AG56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AH56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AI56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AJ56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AL56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AM56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AN56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AO56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AP56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AQ56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AR56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AS56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AT56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AU56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AV56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AW56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AX56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AY56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AZ56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BA56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BB56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BC56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BD56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BE56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BF56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BG56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BH56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BI56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BJ56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BK56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BL56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BM56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BN56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BO56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BP56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BQ56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BR56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BS56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BT56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BU56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BV56" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
     </row>
     <row r="57" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="M57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="N57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="O57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="P57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Q57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="R57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="S57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="T57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="U57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="V57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="W57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="X57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Y57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Z57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AA57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AB57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AC57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AD57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AE57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AF57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AG57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AH57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AI57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AJ57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AL57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AM57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AN57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AO57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AP57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AQ57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AR57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AS57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AT57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AU57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AV57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AW57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AX57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AY57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AZ57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BA57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BB57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BC57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BD57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BE57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BF57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BG57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BH57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BI57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BJ57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BK57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BL57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BM57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BN57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BO57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BP57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BQ57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BR57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BS57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BT57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BU57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BV57" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="M58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="N58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="O58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="P58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Q58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="R58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="S58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="T58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="U58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="V58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="W58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="X58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Y58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Z58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AA58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AB58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AC58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AD58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AE58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AF58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AG58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AH58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AI58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AJ58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AL58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AM58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AN58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AO58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AP58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AQ58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AR58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AS58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AT58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AU58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AV58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AW58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AX58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AY58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AZ58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BA58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BB58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BC58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BD58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BE58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BF58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BG58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BH58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BI58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BJ58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BK58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BL58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BM58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BN58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BO58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BP58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BQ58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BR58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BS58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BT58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BU58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="BV58" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="M59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="N59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="O59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="P59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Q59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="R59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="S59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="T59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="U59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="V59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="W59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="X59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Y59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="Z59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AA59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AB59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AC59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AD59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AE59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AF59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AG59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AH59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AI59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AJ59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AL59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AM59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AN59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AO59" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AP59" s="19" t="str">
+        <f t="shared" ref="L59:BV63" si="90">IF($F59="","",IF((AP$3&gt;=$G59)*AND(AP$3&lt;=$H59),IF($A59="",IF($B59="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AQ59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AR59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AS59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AT59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AU59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AV59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AW59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AX59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AY59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AZ59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BA59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BB59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BC59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BD59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BE59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BF59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BG59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BH59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BI59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BJ59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BK59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BL59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BM59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BN59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BO59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BP59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BQ59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BR59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BS59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BT59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BU59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BV59" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="M60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="N60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="O60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="P60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Q60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="R60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="S60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="T60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="U60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="V60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="W60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="X60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Y60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Z60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AA60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AB60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AC60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AD60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AE60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AF60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AG60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AH60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AI60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AJ60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AK60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AM60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AN60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AO60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AP60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AQ60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AR60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AS60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AT60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AU60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AV60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AW60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AX60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AY60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AZ60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BA60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BB60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BC60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BD60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BE60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BF60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BG60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BH60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BI60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BJ60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BK60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BL60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BM60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BN60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BO60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BP60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BQ60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BR60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BS60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BT60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BU60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BV60" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="M61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="N61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="O61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="P61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Q61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="R61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="S61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="T61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="U61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="V61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="W61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="X61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Y61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Z61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AA61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AB61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AC61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AD61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AE61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AF61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AG61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AH61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AI61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AJ61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AK61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AM61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AN61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AO61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AP61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AQ61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AR61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AS61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AT61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AU61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AV61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AW61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AX61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AY61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AZ61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BA61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BB61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BC61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BD61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BE61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BF61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BG61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BH61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BI61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BJ61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BK61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BL61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BM61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BN61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BO61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BP61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BQ61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BR61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BS61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BT61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BU61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BV61" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="M62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="N62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="O62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="P62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Q62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="R62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="S62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="T62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="U62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="V62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="W62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="X62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Y62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Z62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AA62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AB62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AC62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AD62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AE62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AF62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AG62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AH62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AI62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AJ62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AK62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AM62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AN62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AO62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AP62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AQ62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AR62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AS62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AT62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AU62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AV62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AW62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AX62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AY62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AZ62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BA62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BB62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BC62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BD62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BE62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BF62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BG62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BH62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BI62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BJ62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BK62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BL62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BM62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BN62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BO62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BP62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BQ62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BR62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BS62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BT62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BU62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="BV62" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="M63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="N63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="O63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="P63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Q63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="R63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="S63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="T63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="U63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="V63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="W63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="X63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Y63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="Z63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AA63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AB63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AC63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AD63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AE63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AF63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AG63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AH63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AI63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AJ63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AK63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AM63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AN63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AO63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AP63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AQ63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AR63" s="19" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AS63" s="19" t="str">
+        <f t="shared" ref="L63:BV65" si="91">IF($F63="","",IF((AS$3&gt;=$G63)*AND(AS$3&lt;=$H63),IF($A63="",IF($B63="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AT63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AU63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AV63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AW63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AX63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AY63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AZ63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BA63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BB63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BC63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BD63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BE63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BF63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BG63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BH63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BI63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BJ63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BK63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BL63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BM63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BN63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BO63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BP63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BQ63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BR63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BS63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BT63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BU63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BV63" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="M64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="N64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="O64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="P64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Q64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="R64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="S64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="T64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="U64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="V64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="W64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="X64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Y64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Z64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AA64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AB64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AC64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AD64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AE64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AF64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AG64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AH64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AI64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AJ64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AK64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AL64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AN64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AO64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AP64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AQ64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AR64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AS64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AT64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AU64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AV64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AW64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AX64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AY64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AZ64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BA64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BB64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BC64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BD64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BE64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BF64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BG64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BH64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BI64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BJ64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BK64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BL64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BM64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BN64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BO64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BP64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BQ64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BR64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BS64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BT64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BU64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BV64" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="M65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="N65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="O65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="P65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Q65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="R65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="S65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="T65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="U65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="V65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="W65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="X65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Y65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Z65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AA65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AB65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AC65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AD65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AE65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AF65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AG65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AH65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AI65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AJ65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AK65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AL65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AN65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AO65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AP65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AQ65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AR65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AS65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AT65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AU65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AV65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AW65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AX65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AY65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AZ65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BA65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BB65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BC65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BD65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BE65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BF65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BG65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BH65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BI65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BJ65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BK65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BL65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BM65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BN65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BO65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BP65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BQ65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BR65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BS65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BT65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BU65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BV65" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11665,7 +12592,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:BV55">
+  <conditionalFormatting sqref="K5:BV65">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F70B19-792C-41F4-8F39-05D6F131AD3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A425F15-B46F-4953-AF7C-F431F0E65E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +636,24 @@
       <patternFill patternType="lightUp">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
   </fills>
@@ -775,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,6 +885,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,8 +1324,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -6569,17 +6596,21 @@
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="39">
         <v>44125</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="40">
         <v>44125</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="I37" s="40">
+        <v>44121</v>
+      </c>
+      <c r="J37" s="40">
+        <v>44122</v>
+      </c>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
@@ -6602,7 +6633,9 @@
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
+      <c r="AG37" s="19">
+        <v>4</v>
+      </c>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
       <c r="AJ37" s="19"/>
@@ -6686,7 +6719,9 @@
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="19">
+        <v>3</v>
+      </c>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
       <c r="AJ38" s="19"/>
@@ -6772,8 +6807,12 @@
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
+      <c r="AG39" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH39" s="19">
+        <v>3</v>
+      </c>
       <c r="AI39" s="19"/>
       <c r="AJ39" s="19"/>
       <c r="AK39" s="19"/>
@@ -6857,8 +6896,12 @@
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
+      <c r="AH40" s="19">
+        <v>3</v>
+      </c>
+      <c r="AI40" s="19">
+        <v>3</v>
+      </c>
       <c r="AJ40" s="19"/>
       <c r="AK40" s="19"/>
       <c r="AL40" s="19"/>
@@ -6942,8 +6985,12 @@
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
-      <c r="AI41" s="19"/>
-      <c r="AJ41" s="19"/>
+      <c r="AI41" s="19">
+        <v>3</v>
+      </c>
+      <c r="AJ41" s="19">
+        <v>3</v>
+      </c>
       <c r="AK41" s="19"/>
       <c r="AL41" s="19"/>
       <c r="AM41" s="19"/>
@@ -7027,8 +7074,12 @@
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="19"/>
-      <c r="AK42" s="19"/>
+      <c r="AJ42" s="19">
+        <v>3</v>
+      </c>
+      <c r="AK42" s="19">
+        <v>3</v>
+      </c>
       <c r="AL42" s="19"/>
       <c r="AM42" s="19"/>
       <c r="AN42" s="19"/>
@@ -7112,7 +7163,9 @@
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
       <c r="AJ43" s="19"/>
-      <c r="AK43" s="19"/>
+      <c r="AK43" s="19">
+        <v>3</v>
+      </c>
       <c r="AL43" s="19"/>
       <c r="AM43" s="19"/>
       <c r="AN43" s="19"/>
@@ -7197,8 +7250,12 @@
       <c r="AI44" s="19"/>
       <c r="AJ44" s="19"/>
       <c r="AK44" s="19"/>
-      <c r="AL44" s="19"/>
-      <c r="AM44" s="19"/>
+      <c r="AL44" s="19">
+        <v>3</v>
+      </c>
+      <c r="AM44" s="19">
+        <v>3</v>
+      </c>
       <c r="AN44" s="19"/>
       <c r="AO44" s="19"/>
       <c r="AP44" s="19"/>
@@ -7282,9 +7339,15 @@
       <c r="AJ45" s="19"/>
       <c r="AK45" s="19"/>
       <c r="AL45" s="19"/>
-      <c r="AM45" s="19"/>
-      <c r="AN45" s="19"/>
-      <c r="AO45" s="19"/>
+      <c r="AM45" s="19">
+        <v>3</v>
+      </c>
+      <c r="AN45" s="19">
+        <v>3</v>
+      </c>
+      <c r="AO45" s="19">
+        <v>3</v>
+      </c>
       <c r="AP45" s="19"/>
       <c r="AQ45" s="19"/>
       <c r="AR45" s="19"/>
@@ -7368,18 +7431,42 @@
       <c r="AL46" s="19"/>
       <c r="AM46" s="19"/>
       <c r="AN46" s="19"/>
-      <c r="AO46" s="19"/>
-      <c r="AP46" s="19"/>
-      <c r="AQ46" s="19"/>
-      <c r="AR46" s="19"/>
-      <c r="AS46" s="19"/>
-      <c r="AT46" s="19"/>
-      <c r="AU46" s="19"/>
-      <c r="AV46" s="19"/>
-      <c r="AW46" s="19"/>
-      <c r="AX46" s="19"/>
-      <c r="AY46" s="19"/>
-      <c r="AZ46" s="19"/>
+      <c r="AO46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AP46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AQ46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AR46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AS46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AT46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AW46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AX46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AY46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AZ46" s="19">
+        <v>3</v>
+      </c>
       <c r="BA46" s="19"/>
       <c r="BB46" s="19"/>
       <c r="BC46" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A425F15-B46F-4953-AF7C-F431F0E65E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6252BCBF-FD62-41E7-A9B6-BCEEF6677E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,24 +636,6 @@
       <patternFill patternType="lightUp">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray0625">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor theme="0" tint="-0.249977111117893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor theme="0" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
   </fills>
@@ -793,7 +775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,15 +867,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,7 +1298,7 @@
   <dimension ref="A1:BV67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+      <selection activeCell="AI41" sqref="AI41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -6596,19 +6569,19 @@
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="26">
         <v>44125</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="27">
         <v>44125</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="27">
         <v>44121</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="27">
         <v>44122</v>
       </c>
       <c r="K37" s="19"/>
@@ -6686,17 +6659,21 @@
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="26">
         <v>44125</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="27">
         <v>44125</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="I38" s="27">
+        <v>44122</v>
+      </c>
+      <c r="J38" s="27">
+        <v>44129</v>
+      </c>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
@@ -6720,7 +6697,7 @@
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
@@ -6774,17 +6751,21 @@
       <c r="E39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="26">
         <v>44125</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="27">
         <v>44126</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="I39" s="27">
+        <v>44124</v>
+      </c>
+      <c r="J39" s="27">
+        <v>44129</v>
+      </c>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
@@ -6808,14 +6789,20 @@
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH39" s="19">
-        <v>3</v>
-      </c>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="AI39" s="19">
+        <v>4</v>
+      </c>
+      <c r="AJ39" s="19">
+        <v>4</v>
+      </c>
+      <c r="AK39" s="19">
+        <v>4</v>
+      </c>
       <c r="AL39" s="19"/>
       <c r="AM39" s="19"/>
       <c r="AN39" s="19"/>
@@ -6862,17 +6849,21 @@
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="26">
         <v>44126</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="27">
         <v>44127</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="I40" s="27">
+        <v>44124</v>
+      </c>
+      <c r="J40" s="27">
+        <v>44129</v>
+      </c>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
@@ -6897,13 +6888,17 @@
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI40" s="19">
-        <v>3</v>
-      </c>
-      <c r="AJ40" s="19"/>
-      <c r="AK40" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="AJ40" s="19">
+        <v>4</v>
+      </c>
+      <c r="AK40" s="19">
+        <v>4</v>
+      </c>
       <c r="AL40" s="19"/>
       <c r="AM40" s="19"/>
       <c r="AN40" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6252BCBF-FD62-41E7-A9B6-BCEEF6677E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51B7E7A-75BB-4886-B9E8-14D1DB1696DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1297,8 +1297,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI41" sqref="AI41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT36" sqref="AT36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -6945,17 +6945,21 @@
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="26">
         <v>44127</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="27">
         <v>44128</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="I41" s="27">
+        <v>44130</v>
+      </c>
+      <c r="J41" s="27">
+        <v>44131</v>
+      </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
@@ -6980,15 +6984,15 @@
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
-      <c r="AI41" s="19">
-        <v>3</v>
-      </c>
-      <c r="AJ41" s="19">
-        <v>3</v>
-      </c>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="19"/>
       <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
+      <c r="AL41" s="19">
+        <v>4</v>
+      </c>
+      <c r="AM41" s="19">
+        <v>4</v>
+      </c>
       <c r="AN41" s="19"/>
       <c r="AO41" s="19"/>
       <c r="AP41" s="19"/>
@@ -7069,15 +7073,15 @@
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="19">
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="19"/>
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="19">
         <v>3</v>
       </c>
-      <c r="AK42" s="19">
+      <c r="AN42" s="19">
         <v>3</v>
       </c>
-      <c r="AL42" s="19"/>
-      <c r="AM42" s="19"/>
-      <c r="AN42" s="19"/>
       <c r="AO42" s="19"/>
       <c r="AP42" s="19"/>
       <c r="AQ42" s="19"/>
@@ -7158,12 +7162,12 @@
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
       <c r="AJ43" s="19"/>
-      <c r="AK43" s="19">
-        <v>3</v>
-      </c>
+      <c r="AK43" s="19"/>
       <c r="AL43" s="19"/>
       <c r="AM43" s="19"/>
-      <c r="AN43" s="19"/>
+      <c r="AN43" s="19">
+        <v>3</v>
+      </c>
       <c r="AO43" s="19"/>
       <c r="AP43" s="19"/>
       <c r="AQ43" s="19"/>
@@ -7245,14 +7249,14 @@
       <c r="AI44" s="19"/>
       <c r="AJ44" s="19"/>
       <c r="AK44" s="19"/>
-      <c r="AL44" s="19">
+      <c r="AL44" s="19"/>
+      <c r="AM44" s="19"/>
+      <c r="AN44" s="19">
         <v>3</v>
       </c>
-      <c r="AM44" s="19">
+      <c r="AO44" s="19">
         <v>3</v>
       </c>
-      <c r="AN44" s="19"/>
-      <c r="AO44" s="19"/>
       <c r="AP44" s="19"/>
       <c r="AQ44" s="19"/>
       <c r="AR44" s="19"/>
@@ -7334,16 +7338,14 @@
       <c r="AJ45" s="19"/>
       <c r="AK45" s="19"/>
       <c r="AL45" s="19"/>
-      <c r="AM45" s="19">
-        <v>3</v>
-      </c>
-      <c r="AN45" s="19">
-        <v>3</v>
-      </c>
+      <c r="AM45" s="19"/>
+      <c r="AN45" s="19"/>
       <c r="AO45" s="19">
         <v>3</v>
       </c>
-      <c r="AP45" s="19"/>
+      <c r="AP45" s="19">
+        <v>3</v>
+      </c>
       <c r="AQ45" s="19"/>
       <c r="AR45" s="19"/>
       <c r="AS45" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51B7E7A-75BB-4886-B9E8-14D1DB1696DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C1E7A8-3805-4B56-94E4-5E52DA58414F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1297,8 +1297,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT36" sqref="AT36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -7037,17 +7037,21 @@
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="26">
         <v>44128</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="27">
         <v>44129</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="I42" s="27">
+        <v>44131</v>
+      </c>
+      <c r="J42" s="27">
+        <v>44132</v>
+      </c>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
@@ -7077,10 +7081,10 @@
       <c r="AK42" s="19"/>
       <c r="AL42" s="19"/>
       <c r="AM42" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN42" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO42" s="19"/>
       <c r="AP42" s="19"/>
@@ -7125,17 +7129,21 @@
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="26">
         <v>44129</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="27">
         <v>44129</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="I43" s="27">
+        <v>44131</v>
+      </c>
+      <c r="J43" s="27">
+        <v>44134</v>
+      </c>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
@@ -7166,7 +7174,7 @@
       <c r="AL43" s="19"/>
       <c r="AM43" s="19"/>
       <c r="AN43" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO43" s="19"/>
       <c r="AP43" s="19"/>
@@ -7211,17 +7219,21 @@
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="26">
         <v>44130</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="27">
         <v>44131</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="I44" s="27">
+        <v>44135</v>
+      </c>
+      <c r="J44" s="27">
+        <v>44135</v>
+      </c>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
@@ -7252,10 +7264,10 @@
       <c r="AL44" s="19"/>
       <c r="AM44" s="19"/>
       <c r="AN44" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO44" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP44" s="19"/>
       <c r="AQ44" s="19"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C1E7A8-3805-4B56-94E4-5E52DA58414F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B836F2AC-76AF-4A25-9ECE-CED54D480AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -480,23 +480,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>8.8. 仕様の修正</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>8.9. Qiita記事投稿</t>
-    <rPh sb="10" eb="14">
-      <t>キジトウコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>8.8. 実行環境整備</t>
     <rPh sb="5" eb="9">
       <t>ジッコウカンキョウ</t>
@@ -516,6 +499,30 @@
   </si>
   <si>
     <t>20h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.9. テスト記述</t>
+    <rPh sb="8" eb="10">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.10. 仕様の修正</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8.11. Qiita記事投稿</t>
+    <rPh sb="11" eb="15">
+      <t>キジトウコウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1295,9 +1302,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BV67"/>
+  <dimension ref="A1:BV68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -2432,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="19" t="str">
-        <f t="shared" ref="K6:Z65" si="84">IF($F6="","",IF((L$3&gt;=$G6)*AND(L$3&lt;=$H6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" ref="K6:Z66" si="84">IF($F6="","",IF((L$3&gt;=$G6)*AND(L$3&lt;=$H6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="M6" s="19" t="str">
@@ -4327,7 +4334,7 @@
         <v/>
       </c>
       <c r="AD20" s="19" t="str">
-        <f t="shared" ref="L20:BV47" si="85">IF($F20="","",IF((AD$3&gt;=$G20)*AND(AD$3&lt;=$H20),IF($A20="",IF($B20="",3,2),1),""))</f>
+        <f t="shared" ref="L20:BV48" si="85">IF($F20="","",IF((AD$3&gt;=$G20)*AND(AD$3&lt;=$H20),IF($A20="",IF($B20="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE20" s="19" t="str">
@@ -7038,7 +7045,7 @@
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
       <c r="F42" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G42" s="26">
         <v>44128</v>
@@ -7215,7 +7222,7 @@
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
@@ -7307,21 +7314,25 @@
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="17"/>
-      <c r="F45" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="22">
-        <v>44131</v>
-      </c>
-      <c r="H45" s="23">
-        <v>44133</v>
-      </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
+      <c r="F45" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="26">
+        <v>44135</v>
+      </c>
+      <c r="H45" s="27">
+        <v>44136</v>
+      </c>
+      <c r="I45" s="27">
+        <v>44135</v>
+      </c>
+      <c r="J45" s="27">
+        <v>44136</v>
+      </c>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
@@ -7352,14 +7363,14 @@
       <c r="AL45" s="19"/>
       <c r="AM45" s="19"/>
       <c r="AN45" s="19"/>
-      <c r="AO45" s="19">
-        <v>3</v>
-      </c>
-      <c r="AP45" s="19">
-        <v>3</v>
-      </c>
-      <c r="AQ45" s="19"/>
-      <c r="AR45" s="19"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="19"/>
+      <c r="AQ45" s="19">
+        <v>4</v>
+      </c>
+      <c r="AR45" s="19">
+        <v>4</v>
+      </c>
       <c r="AS45" s="19"/>
       <c r="AT45" s="19"/>
       <c r="AU45" s="19"/>
@@ -7395,18 +7406,18 @@
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="17"/>
       <c r="F46" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G46" s="22">
+        <v>44131</v>
+      </c>
+      <c r="H46" s="23">
         <v>44133</v>
-      </c>
-      <c r="H46" s="23">
-        <v>44144</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
@@ -7446,36 +7457,16 @@
       <c r="AP46" s="19">
         <v>3</v>
       </c>
-      <c r="AQ46" s="19">
-        <v>3</v>
-      </c>
-      <c r="AR46" s="19">
-        <v>3</v>
-      </c>
-      <c r="AS46" s="19">
-        <v>3</v>
-      </c>
-      <c r="AT46" s="19">
-        <v>3</v>
-      </c>
-      <c r="AU46" s="19">
-        <v>3</v>
-      </c>
-      <c r="AV46" s="19">
-        <v>3</v>
-      </c>
-      <c r="AW46" s="19">
-        <v>3</v>
-      </c>
-      <c r="AX46" s="19">
-        <v>3</v>
-      </c>
-      <c r="AY46" s="19">
-        <v>3</v>
-      </c>
-      <c r="AZ46" s="19">
-        <v>3</v>
-      </c>
+      <c r="AQ46" s="19"/>
+      <c r="AR46" s="19"/>
+      <c r="AS46" s="19"/>
+      <c r="AT46" s="19"/>
+      <c r="AU46" s="19"/>
+      <c r="AV46" s="19"/>
+      <c r="AW46" s="19"/>
+      <c r="AX46" s="19"/>
+      <c r="AY46" s="19"/>
+      <c r="AZ46" s="19"/>
       <c r="BA46" s="19"/>
       <c r="BB46" s="19"/>
       <c r="BC46" s="19"/>
@@ -7501,296 +7492,128 @@
     </row>
     <row r="47" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="15"/>
-      <c r="B47" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="18">
-        <v>20</v>
+      <c r="F47" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="G47" s="22">
-        <v>44145</v>
+        <v>44133</v>
       </c>
       <c r="H47" s="23">
-        <v>44164</v>
+        <v>44144</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
-      <c r="K47" s="19" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="L47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="M47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="N47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="O47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="P47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Q47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="R47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="S47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="T47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="U47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="V47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="W47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="X47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Y47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="Z47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AA47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AB47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AC47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AD47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AE47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AF47" s="19" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AG47" s="19" t="str">
-        <f t="shared" ref="L47:BV51" si="86">IF($F47="","",IF((AG$3&gt;=$G47)*AND(AG$3&lt;=$H47),IF($A47="",IF($B47="",3,2),1),""))</f>
-        <v/>
-      </c>
-      <c r="AH47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AI47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AJ47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AK47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AL47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AM47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AN47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AO47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AP47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AQ47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AR47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AS47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AT47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AU47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AV47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AW47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AX47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AY47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AZ47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BA47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BB47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BC47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BD47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BE47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BF47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BG47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BH47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BI47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BJ47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BK47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BL47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BM47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BN47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BO47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BP47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BQ47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BR47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BS47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BT47" s="19">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="BU47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BV47" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19"/>
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AP47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AQ47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AR47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AS47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AT47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AW47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AX47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AY47" s="19">
+        <v>3</v>
+      </c>
+      <c r="AZ47" s="19">
+        <v>3</v>
+      </c>
+      <c r="BA47" s="19"/>
+      <c r="BB47" s="19"/>
+      <c r="BC47" s="19"/>
+      <c r="BD47" s="19"/>
+      <c r="BE47" s="19"/>
+      <c r="BF47" s="19"/>
+      <c r="BG47" s="19"/>
+      <c r="BH47" s="19"/>
+      <c r="BI47" s="19"/>
+      <c r="BJ47" s="19"/>
+      <c r="BK47" s="19"/>
+      <c r="BL47" s="19"/>
+      <c r="BM47" s="19"/>
+      <c r="BN47" s="19"/>
+      <c r="BO47" s="19"/>
+      <c r="BP47" s="19"/>
+      <c r="BQ47" s="19"/>
+      <c r="BR47" s="19"/>
+      <c r="BS47" s="19"/>
+      <c r="BT47" s="19"/>
+      <c r="BU47" s="19"/>
+      <c r="BV47" s="19"/>
     </row>
     <row r="48" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="15"/>
       <c r="B48" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
       <c r="F48" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G48" s="22">
-        <v>44165</v>
+        <v>44145</v>
       </c>
       <c r="H48" s="23">
-        <v>44196</v>
+        <v>44164</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
@@ -7799,91 +7622,91 @@
         <v/>
       </c>
       <c r="L48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="M48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="N48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="O48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="P48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="Q48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="R48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="S48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="T48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="V48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="W48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="X48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="Y48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="Z48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AA48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AB48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AC48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AD48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AE48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AF48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG48" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="L48:BV52" si="86">IF($F48="","",IF((AG$3&gt;=$G48)*AND(AG$3&lt;=$H48),IF($A48="",IF($B48="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AH48" s="19" t="str">
@@ -7962,106 +7785,111 @@
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="BA48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BB48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BC48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BD48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BE48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BF48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BG48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BH48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BI48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BJ48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BK48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BL48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BM48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BN48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BO48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BP48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BQ48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BR48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BS48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BT48" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BU48" s="19">
+      <c r="BA48" s="19">
         <f t="shared" si="86"/>
         <v>2</v>
       </c>
-      <c r="BV48" s="19">
+      <c r="BB48" s="19">
         <f t="shared" si="86"/>
         <v>2</v>
+      </c>
+      <c r="BC48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BD48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BE48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BF48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BG48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BH48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BI48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BJ48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BK48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BL48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BM48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BN48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BO48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BP48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BQ48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BR48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BS48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BT48" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BU48" s="19" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="BV48" s="19" t="str">
+        <f t="shared" si="86"/>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
+      <c r="B49" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23" t="str">
-        <f t="shared" ref="H49:H65" si="87">IF(F49="","",WORKDAY(G49,F49,非稼働日)-1)</f>
-        <v/>
+      <c r="F49" s="18">
+        <v>21</v>
+      </c>
+      <c r="G49" s="22">
+        <v>44165</v>
+      </c>
+      <c r="H49" s="23">
+        <v>44196</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
@@ -8313,13 +8141,13 @@
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="BU49" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="BV49" s="19" t="str">
-        <f t="shared" si="86"/>
-        <v/>
+      <c r="BU49" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="BV49" s="19">
+        <f t="shared" si="86"/>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -8331,7 +8159,7 @@
       <c r="F50" s="18"/>
       <c r="G50" s="22"/>
       <c r="H50" s="23" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="H50:H66" si="87">IF(F50="","",WORKDAY(G50,F50,非稼働日)-1)</f>
         <v/>
       </c>
       <c r="I50" s="23"/>
@@ -8708,159 +8536,159 @@
         <v/>
       </c>
       <c r="AJ51" s="19" t="str">
-        <f t="shared" ref="L51:BV55" si="88">IF($F51="","",IF((AJ$3&gt;=$G51)*AND(AJ$3&lt;=$H51),IF($A51="",IF($B51="",3,2),1),""))</f>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AK51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AL51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AM51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AN51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AO51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AP51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AQ51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AR51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AS51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AT51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AU51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AV51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AW51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AX51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AY51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AZ51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BA51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BB51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BC51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BD51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BE51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BF51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BG51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BH51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BI51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BJ51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BK51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BL51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BM51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BN51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BO51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BP51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BQ51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BR51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BS51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BT51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BU51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="BV51" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
     </row>
@@ -8883,103 +8711,103 @@
         <v/>
       </c>
       <c r="L52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="M52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="N52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="O52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="P52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Q52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="R52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="T52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="V52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="X52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Y52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="Z52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AA52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AB52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AC52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AD52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AE52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AF52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AG52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AI52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AJ52" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="L52:BV56" si="88">IF($F52="","",IF((AJ$3&gt;=$G52)*AND(AJ$3&lt;=$H52),IF($A52="",IF($B52="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AK52" s="19" t="str">
@@ -9804,147 +9632,147 @@
         <v/>
       </c>
       <c r="AM55" s="19" t="str">
-        <f t="shared" ref="L55:BV59" si="89">IF($F55="","",IF((AM$3&gt;=$G55)*AND(AM$3&lt;=$H55),IF($A55="",IF($B55="",3,2),1),""))</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AN55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AO55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AP55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AQ55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AR55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AS55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AT55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AU55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AV55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AW55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AX55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AY55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AZ55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BA55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BB55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BC55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BD55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BE55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BF55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BG55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BH55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BI55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BJ55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BK55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BL55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BM55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BN55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BO55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BP55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BQ55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BR55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BS55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BT55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BU55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="BV55" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
     </row>
@@ -9967,115 +9795,115 @@
         <v/>
       </c>
       <c r="L56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="M56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="N56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="O56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="P56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Q56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="R56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="S56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="V56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="W56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="X56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Z56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AA56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AB56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AC56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AD56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AE56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AF56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AG56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AH56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AI56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AK56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AL56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AM56" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="L56:BV60" si="89">IF($F56="","",IF((AM$3&gt;=$G56)*AND(AM$3&lt;=$H56),IF($A56="",IF($B56="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AN56" s="19" t="str">
@@ -10900,135 +10728,135 @@
         <v/>
       </c>
       <c r="AP59" s="19" t="str">
-        <f t="shared" ref="L59:BV63" si="90">IF($F59="","",IF((AP$3&gt;=$G59)*AND(AP$3&lt;=$H59),IF($A59="",IF($B59="",3,2),1),""))</f>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AQ59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AR59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AS59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AT59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AU59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AV59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AW59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AX59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AY59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AZ59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BA59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BB59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BC59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BD59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BE59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BF59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BG59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BH59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BI59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BJ59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BK59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BL59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BM59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BN59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BO59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BP59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BQ59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BR59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BS59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BT59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BU59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="BV59" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
     </row>
@@ -11051,127 +10879,127 @@
         <v/>
       </c>
       <c r="L60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="M60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="N60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="O60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="P60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="Q60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="R60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="S60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="T60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="W60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="X60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="Y60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="Z60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AA60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AB60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AC60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AD60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AE60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AF60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AG60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AH60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AI60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AJ60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AL60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AM60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AN60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AO60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AP60" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="L60:BV64" si="90">IF($F60="","",IF((AP$3&gt;=$G60)*AND(AP$3&lt;=$H60),IF($A60="",IF($B60="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AQ60" s="19" t="str">
@@ -11996,123 +11824,123 @@
         <v/>
       </c>
       <c r="AS63" s="19" t="str">
-        <f t="shared" ref="L63:BV65" si="91">IF($F63="","",IF((AS$3&gt;=$G63)*AND(AS$3&lt;=$H63),IF($A63="",IF($B63="",3,2),1),""))</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AT63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AU63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AV63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AW63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AX63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AY63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AZ63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BA63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BB63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BC63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BD63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BE63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BF63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BG63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BH63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BI63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BJ63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BK63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BL63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BM63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BN63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BO63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BP63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BQ63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BR63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BS63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BT63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BU63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="BV63" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
     </row>
@@ -12135,139 +11963,139 @@
         <v/>
       </c>
       <c r="L64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="N64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="O64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="P64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="Q64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="R64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="S64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="T64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="U64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="V64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="W64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="X64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="Y64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="Z64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AA64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AB64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AC64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AD64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AE64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AF64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AG64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AH64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AI64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AJ64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AK64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AM64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AN64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AO64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AP64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AQ64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AR64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AS64" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="L64:BV66" si="91">IF($F64="","",IF((AS$3&gt;=$G64)*AND(AS$3&lt;=$H64),IF($A64="",IF($B64="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AT64" s="19" t="str">
@@ -12659,19 +12487,290 @@
       </c>
     </row>
     <row r="66" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G66" s="20"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="19" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="L66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="M66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="N66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="O66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="P66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Q66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="R66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="S66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="T66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="U66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="V66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="W66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="X66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Y66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="Z66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AA66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AB66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AC66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AD66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AE66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AF66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AG66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AH66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AI66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AJ66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AK66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AL66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AN66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AO66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AP66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AQ66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AR66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AS66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AT66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AU66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AV66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AW66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AX66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AY66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AZ66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BA66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BB66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BC66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BD66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BE66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BF66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BG66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BH66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BI66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BJ66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BK66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BL66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BM66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BN66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BO66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BP66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BQ66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BR66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BS66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BT66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BU66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="BV66" s="19" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
     </row>
     <row r="67" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12688,7 +12787,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:BV65">
+  <conditionalFormatting sqref="K5:BV66">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
